--- a/ExportData/Test 4 User 3.xlsx
+++ b/ExportData/Test 4 User 3.xlsx
@@ -532,7 +532,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>32.45</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>50</v>
@@ -570,16 +570,16 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>32.62</v>
+        <v>65.38</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.067</v>
+        <v>8</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.067</v>
+        <v>7</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.066666666666667</v>
+        <v>7</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>51.65277777777791</v>
+        <v>51.9833333333335</v>
       </c>
     </row>
     <row r="6">
@@ -608,7 +608,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32.82</v>
+        <v>65.58</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.19</v>
@@ -638,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>53.63611111111143</v>
+        <v>53.96666666666698</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33.02</v>
+        <v>65.78</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.19</v>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>55.61944444444489</v>
+        <v>55.95000000000046</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +684,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>33.22</v>
+        <v>65.98</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>0.19</v>
@@ -714,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>57.60277777777838</v>
+        <v>57.93333333333396</v>
       </c>
     </row>
     <row r="9">
@@ -722,7 +722,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>33.42</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>0.19</v>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>59.58611111111184</v>
+        <v>59.91666666666743</v>
       </c>
     </row>
     <row r="10">
@@ -760,7 +760,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33.62</v>
+        <v>66.38</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0.19</v>
@@ -790,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>61.56944444444535</v>
+        <v>61.90000000000091</v>
       </c>
     </row>
     <row r="11">
@@ -798,7 +798,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33.82</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>0.19</v>
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>63.55277777777881</v>
+        <v>63.88333333333439</v>
       </c>
     </row>
     <row r="12">
@@ -836,7 +836,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>34.02</v>
+        <v>66.77</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0.19</v>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>65.53611111111231</v>
+        <v>65.86666666666788</v>
       </c>
     </row>
     <row r="13">
@@ -874,7 +874,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>34.22</v>
+        <v>66.97</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.19</v>
@@ -904,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="5" t="n">
-        <v>67.51944444444577</v>
+        <v>67.85000000000136</v>
       </c>
     </row>
     <row r="14">
@@ -912,7 +912,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34.42</v>
+        <v>67.17</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0.19</v>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="O14" s="5" t="n">
-        <v>69.50277777777927</v>
+        <v>69.83333333333486</v>
       </c>
     </row>
     <row r="15">
@@ -950,7 +950,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34.62</v>
+        <v>67.37</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>0.19</v>
@@ -980,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>71.48611111111273</v>
+        <v>71.81666666666831</v>
       </c>
     </row>
     <row r="16">
@@ -988,7 +988,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>34.82</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>0.19</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>73.46944444444622</v>
+        <v>73.8000000000018</v>
       </c>
     </row>
     <row r="17">
@@ -1026,7 +1026,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>35.02</v>
+        <v>67.77</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>0.19</v>
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>75.45277777777969</v>
+        <v>75.78333333333528</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1064,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35.22</v>
+        <v>67.97</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0.19</v>
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>77.43611111111321</v>
+        <v>77.76666666666878</v>
       </c>
     </row>
     <row r="19">
@@ -1102,7 +1102,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35.42</v>
+        <v>68.17</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.19</v>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>79.41944444444667</v>
+        <v>79.75000000000225</v>
       </c>
     </row>
     <row r="20">
@@ -1140,16 +1140,16 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>35.49</v>
+        <v>68.22</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.867</v>
+        <v>1.7</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.867</v>
+        <v>0.7</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.866666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="O20" s="5" t="n">
         <v>80.01444444444671</v>
@@ -1178,7 +1178,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>35.52</v>
+        <v>68.25</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>0.02</v>
@@ -1216,7 +1216,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35.54</v>
+        <v>68.27</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0.02</v>
@@ -1254,7 +1254,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35.57</v>
+        <v>68.3</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>0.02</v>
@@ -1292,7 +1292,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>35.59</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>0.02</v>
@@ -1330,7 +1330,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>35.67</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -1368,7 +1368,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>35.74</v>
+        <v>68.47</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -1406,7 +1406,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35.82</v>
+        <v>68.55</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -1444,7 +1444,7 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>36.04</v>
+        <v>68.77</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>0.22</v>
@@ -1482,7 +1482,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>36.34</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>0.29</v>
@@ -1520,7 +1520,7 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36.64</v>
+        <v>69.37</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0.29</v>
@@ -1558,7 +1558,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>36.94</v>
+        <v>69.67</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.29</v>
@@ -1596,7 +1596,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>37.24</v>
+        <v>69.97</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>0.29</v>
@@ -1634,7 +1634,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>37.54</v>
+        <v>70.27</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>0.29</v>
@@ -1672,7 +1672,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>37.84</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0.29</v>
@@ -1710,7 +1710,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>38.14</v>
+        <v>70.87</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>0.29</v>
@@ -1748,7 +1748,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>0.29</v>
@@ -1786,7 +1786,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>38.35</v>
+        <v>71.08</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>-0.09</v>
@@ -1976,7 +1976,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>38.25</v>
+        <v>70.98</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>-0.09</v>
@@ -2014,7 +2014,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>38.16</v>
+        <v>70.89</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>-0.09</v>
@@ -2052,7 +2052,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="6" t="n">
-        <v>38.06</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>-0.09</v>
@@ -2090,7 +2090,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>37.78</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>-0.28</v>
@@ -2128,7 +2128,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>37.49</v>
+        <v>70.22</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>-0.28</v>
@@ -2166,7 +2166,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="6" t="n">
-        <v>37.21</v>
+        <v>69.94</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>-0.28</v>
@@ -2204,7 +2204,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="6" t="n">
-        <v>36.92</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>-0.28</v>
@@ -2242,7 +2242,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>36.56</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>-0.36</v>
@@ -2280,7 +2280,7 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>36.08</v>
+        <v>68.81</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>-0.47</v>
@@ -2318,7 +2318,7 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="6" t="n">
-        <v>35.61</v>
+        <v>68.34</v>
       </c>
       <c r="D51" s="6" t="n">
         <v>-0.47</v>
@@ -2356,7 +2356,7 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="6" t="n">
-        <v>35.26</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D52" s="6" t="n">
         <v>-0.34</v>
@@ -2394,10 +2394,10 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="6" t="n">
-        <v>34.93</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>12</v>
@@ -2432,10 +2432,10 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>34.51</v>
+        <v>67.38</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>12</v>
@@ -2470,10 +2470,10 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>34.09</v>
+        <v>67.09</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>12</v>
@@ -2508,10 +2508,10 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>33.67</v>
+        <v>66.8</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>11.933</v>
@@ -2546,7 +2546,7 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="6" t="n">
-        <v>33.32</v>
+        <v>66.45</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>-0.34</v>
@@ -2584,7 +2584,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="6" t="n">
-        <v>32.97</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>-0.34</v>
@@ -2622,7 +2622,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="6" t="n">
-        <v>32.62</v>
+        <v>65.75</v>
       </c>
       <c r="D59" s="6" t="n">
         <v>-0.34</v>
@@ -2660,10 +2660,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>9.667</v>
@@ -2698,7 +2698,7 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D61" s="6" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D62" s="6" t="n">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D63" s="6" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D64" s="6" t="n">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D65" s="6" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D71" s="6" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D72" s="6" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="6" t="n">
-        <v>32.49</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D73" s="6" t="n">
         <v>0.22</v>
@@ -3192,7 +3192,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="6" t="n">
-        <v>32.72</v>
+        <v>65.94</v>
       </c>
       <c r="D74" s="6" t="n">
         <v>0.22</v>
@@ -3230,7 +3230,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="6" t="n">
-        <v>32.94</v>
+        <v>66.16</v>
       </c>
       <c r="D75" s="6" t="n">
         <v>0.22</v>
@@ -3268,7 +3268,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="6" t="n">
-        <v>33.17</v>
+        <v>66.39</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>0.22</v>
@@ -3306,7 +3306,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="6" t="n">
-        <v>33.39</v>
+        <v>66.61</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>0.22</v>
@@ -3344,7 +3344,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="6" t="n">
-        <v>33.62</v>
+        <v>66.84</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>0.22</v>
@@ -3382,7 +3382,7 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="6" t="n">
-        <v>33.84</v>
+        <v>67.06</v>
       </c>
       <c r="D79" s="6" t="n">
         <v>0.22</v>
@@ -3420,7 +3420,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="6" t="n">
-        <v>34.07</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="D80" s="6" t="n">
         <v>0.22</v>
@@ -3458,7 +3458,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="6" t="n">
-        <v>34.37</v>
+        <v>67.59</v>
       </c>
       <c r="D81" s="6" t="n">
         <v>0.29</v>
@@ -3496,7 +3496,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="6" t="n">
-        <v>34.67</v>
+        <v>67.89</v>
       </c>
       <c r="D82" s="6" t="n">
         <v>0.29</v>
@@ -3534,7 +3534,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="6" t="n">
-        <v>34.97</v>
+        <v>68.19</v>
       </c>
       <c r="D83" s="6" t="n">
         <v>0.29</v>
@@ -3572,7 +3572,7 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="6" t="n">
-        <v>35.27</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="D84" s="6" t="n">
         <v>0.29</v>
@@ -3610,7 +3610,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="6" t="n">
-        <v>35.57</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D85" s="6" t="n">
         <v>0.29</v>
@@ -3648,7 +3648,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="6" t="n">
-        <v>35.87</v>
+        <v>69.09</v>
       </c>
       <c r="D86" s="6" t="n">
         <v>0.29</v>
@@ -3686,7 +3686,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="6" t="n">
-        <v>36.17</v>
+        <v>69.39</v>
       </c>
       <c r="D87" s="6" t="n">
         <v>0.29</v>
@@ -3724,7 +3724,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="6" t="n">
-        <v>36.47</v>
+        <v>69.69</v>
       </c>
       <c r="D88" s="6" t="n">
         <v>0.29</v>
@@ -3762,7 +3762,7 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="6" t="n">
-        <v>36.77</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D89" s="6" t="n">
         <v>0.29</v>
@@ -3800,7 +3800,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="6" t="n">
-        <v>37.07</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="D90" s="6" t="n">
         <v>0.29</v>
@@ -3838,7 +3838,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="6" t="n">
-        <v>37.37</v>
+        <v>70.59</v>
       </c>
       <c r="D91" s="6" t="n">
         <v>0.29</v>
@@ -3876,7 +3876,7 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="6" t="n">
-        <v>37.47</v>
+        <v>70.69</v>
       </c>
       <c r="D92" s="6" t="n">
         <v>0.09</v>
@@ -3914,16 +3914,16 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="6" t="n">
-        <v>37.68</v>
+        <v>70.91</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E93" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>8.833</v>
+        <v>9.067</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>0</v>
@@ -3938,13 +3938,13 @@
         <v>0</v>
       </c>
       <c r="K93" s="5" t="n">
-        <v>5.833</v>
+        <v>6.067</v>
       </c>
       <c r="N93" s="5" t="n">
-        <v>5.833333333333333</v>
+        <v>6.066666666666667</v>
       </c>
       <c r="O93" s="5" t="n">
-        <v>60.65333333333393</v>
+        <v>60.71944444444504</v>
       </c>
     </row>
     <row r="94">
@@ -3952,7 +3952,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="6" t="n">
-        <v>37.93</v>
+        <v>71.16</v>
       </c>
       <c r="D94" s="6" t="n">
         <v>0.24</v>
@@ -3982,7 +3982,7 @@
         <v>7</v>
       </c>
       <c r="O94" s="5" t="n">
-        <v>62.63666666666743</v>
+        <v>62.70277777777855</v>
       </c>
     </row>
     <row r="95">
@@ -3990,7 +3990,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="6" t="n">
-        <v>38.18</v>
+        <v>71.41</v>
       </c>
       <c r="D95" s="6" t="n">
         <v>0.24</v>
@@ -4020,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="O95" s="5" t="n">
-        <v>64.62000000000089</v>
+        <v>64.68611111111201</v>
       </c>
     </row>
     <row r="96">
@@ -4028,7 +4028,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="6" t="n">
-        <v>38.43</v>
+        <v>71.66</v>
       </c>
       <c r="D96" s="6" t="n">
         <v>0.24</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="O96" s="5" t="n">
-        <v>66.60333333333439</v>
+        <v>66.6694444444455</v>
       </c>
     </row>
     <row r="97">
@@ -4066,7 +4066,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="6" t="n">
-        <v>38.66</v>
+        <v>71.88</v>
       </c>
       <c r="D97" s="6" t="n">
         <v>0.22</v>
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="O97" s="5" t="n">
-        <v>68.58666666666785</v>
+        <v>68.65277777777897</v>
       </c>
     </row>
     <row r="98">
@@ -4104,7 +4104,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="6" t="n">
-        <v>38.88</v>
+        <v>72.11</v>
       </c>
       <c r="D98" s="6" t="n">
         <v>0.22</v>
@@ -4134,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="O98" s="5" t="n">
-        <v>70.57000000000136</v>
+        <v>70.63611111111247</v>
       </c>
     </row>
     <row r="99">
@@ -4142,7 +4142,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="6" t="n">
-        <v>39.11</v>
+        <v>72.33</v>
       </c>
       <c r="D99" s="6" t="n">
         <v>0.22</v>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="O99" s="5" t="n">
-        <v>72.55333333333482</v>
+        <v>72.61944444444593</v>
       </c>
     </row>
     <row r="100">
@@ -4180,7 +4180,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="6" t="n">
-        <v>39.33</v>
+        <v>72.56</v>
       </c>
       <c r="D100" s="6" t="n">
         <v>0.22</v>
@@ -4210,7 +4210,7 @@
         <v>7</v>
       </c>
       <c r="O100" s="5" t="n">
-        <v>74.53666666666831</v>
+        <v>74.60277777777942</v>
       </c>
     </row>
     <row r="101">
@@ -4218,7 +4218,7 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="6" t="n">
-        <v>39.53</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D101" s="6" t="n">
         <v>0.19</v>
@@ -4248,7 +4248,7 @@
         <v>7</v>
       </c>
       <c r="O101" s="5" t="n">
-        <v>76.52000000000177</v>
+        <v>76.58611111111288</v>
       </c>
     </row>
     <row r="102">
@@ -4256,7 +4256,7 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="6" t="n">
-        <v>39.73</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="D102" s="6" t="n">
         <v>0.19</v>
@@ -4286,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="O102" s="5" t="n">
-        <v>78.50333333333528</v>
+        <v>78.5694444444464</v>
       </c>
     </row>
     <row r="103">
@@ -4294,7 +4294,7 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="6" t="n">
-        <v>39.89</v>
+        <v>73.11</v>
       </c>
       <c r="D103" s="6" t="n">
         <v>0.15</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>6.133</v>
+        <v>5.9</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>0</v>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="5" t="n">
-        <v>5.133</v>
+        <v>4.9</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>5.133333333333333</v>
+        <v>4.9</v>
       </c>
       <c r="O103" s="5" t="n">
         <v>80.02388888889092</v>
@@ -4332,7 +4332,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="6" t="n">
-        <v>39.92</v>
+        <v>73.13</v>
       </c>
       <c r="D104" s="6" t="n">
         <v>0.02</v>
@@ -4370,7 +4370,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="6" t="n">
-        <v>39.94</v>
+        <v>73.16</v>
       </c>
       <c r="D105" s="6" t="n">
         <v>0.02</v>
@@ -4408,7 +4408,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="6" t="n">
-        <v>39.97</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="D106" s="6" t="n">
         <v>0.02</v>
@@ -4446,7 +4446,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="6" t="n">
-        <v>39.99</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D107" s="6" t="n">
         <v>0.02</v>
@@ -4484,7 +4484,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="6" t="n">
-        <v>40.02</v>
+        <v>73.23</v>
       </c>
       <c r="D108" s="6" t="n">
         <v>0.02</v>
@@ -4522,7 +4522,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="6" t="n">
-        <v>40.04</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="D109" s="6" t="n">
         <v>0.02</v>
@@ -4560,7 +4560,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="6" t="n">
-        <v>40.07</v>
+        <v>73.28</v>
       </c>
       <c r="D110" s="6" t="n">
         <v>0.02</v>
@@ -4598,7 +4598,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="6" t="n">
-        <v>40.09</v>
+        <v>73.31</v>
       </c>
       <c r="D111" s="6" t="n">
         <v>0.02</v>
@@ -4636,7 +4636,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="6" t="n">
-        <v>40.12</v>
+        <v>73.33</v>
       </c>
       <c r="D112" s="6" t="n">
         <v>0.02</v>
@@ -4674,7 +4674,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="6" t="n">
-        <v>40.14</v>
+        <v>73.36</v>
       </c>
       <c r="D113" s="6" t="n">
         <v>0.02</v>
@@ -4712,7 +4712,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="6" t="n">
-        <v>40.17</v>
+        <v>73.38</v>
       </c>
       <c r="D114" s="6" t="n">
         <v>0.02</v>
@@ -4750,7 +4750,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="6" t="n">
-        <v>40.19</v>
+        <v>73.41</v>
       </c>
       <c r="D115" s="6" t="n">
         <v>0.02</v>
@@ -4788,7 +4788,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="6" t="n">
-        <v>40.22</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="D116" s="6" t="n">
         <v>0.02</v>
@@ -4826,7 +4826,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="6" t="n">
-        <v>40.24</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="D117" s="6" t="n">
         <v>0.02</v>
@@ -4864,7 +4864,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="6" t="n">
-        <v>40.27</v>
+        <v>73.48</v>
       </c>
       <c r="D118" s="6" t="n">
         <v>0.02</v>
@@ -4902,7 +4902,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="6" t="n">
-        <v>40.29</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="D119" s="6" t="n">
         <v>0.02</v>
@@ -4940,7 +4940,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="6" t="n">
-        <v>40.32</v>
+        <v>73.53</v>
       </c>
       <c r="D120" s="6" t="n">
         <v>0.02</v>
@@ -4978,7 +4978,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="6" t="n">
-        <v>40.39</v>
+        <v>73.61</v>
       </c>
       <c r="D121" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -5016,7 +5016,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="6" t="n">
-        <v>40.47</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="D122" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -5054,7 +5054,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="6" t="n">
-        <v>40.54</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="D123" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -5092,7 +5092,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="6" t="n">
-        <v>40.77</v>
+        <v>73.98</v>
       </c>
       <c r="D124" s="6" t="n">
         <v>0.22</v>
@@ -5130,7 +5130,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="6" t="n">
-        <v>41.07</v>
+        <v>74.28</v>
       </c>
       <c r="D125" s="6" t="n">
         <v>0.29</v>
@@ -5168,7 +5168,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="6" t="n">
-        <v>41.37</v>
+        <v>74.58</v>
       </c>
       <c r="D126" s="6" t="n">
         <v>0.29</v>
@@ -5206,7 +5206,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="6" t="n">
-        <v>41.67</v>
+        <v>74.88</v>
       </c>
       <c r="D127" s="6" t="n">
         <v>0.29</v>
@@ -5244,7 +5244,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="6" t="n">
-        <v>41.97</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="D128" s="6" t="n">
         <v>0.29</v>
@@ -5282,7 +5282,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="6" t="n">
-        <v>42.27</v>
+        <v>75.48</v>
       </c>
       <c r="D129" s="6" t="n">
         <v>0.29</v>
@@ -5320,7 +5320,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="6" t="n">
-        <v>42.57</v>
+        <v>75.78</v>
       </c>
       <c r="D130" s="6" t="n">
         <v>0.29</v>
@@ -5358,7 +5358,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="6" t="n">
-        <v>42.87</v>
+        <v>76.08</v>
       </c>
       <c r="D131" s="6" t="n">
         <v>0.29</v>
@@ -5396,7 +5396,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D132" s="6" t="n">
         <v>0.29</v>
@@ -5434,7 +5434,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D133" s="6" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D134" s="6" t="n">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D135" s="6" t="n">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D136" s="6" t="n">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="6" t="n">
-        <v>43.07</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="D137" s="6" t="n">
         <v>-0.09</v>
@@ -5624,7 +5624,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="6" t="n">
-        <v>42.98</v>
+        <v>76.19</v>
       </c>
       <c r="D138" s="6" t="n">
         <v>-0.09</v>
@@ -5662,7 +5662,7 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="6" t="n">
-        <v>42.88</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D139" s="6" t="n">
         <v>-0.09</v>
@@ -5700,7 +5700,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="6" t="n">
-        <v>42.79</v>
+        <v>76</v>
       </c>
       <c r="D140" s="6" t="n">
         <v>-0.09</v>
@@ -5738,7 +5738,7 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="6" t="n">
-        <v>42.5</v>
+        <v>75.72</v>
       </c>
       <c r="D141" s="6" t="n">
         <v>-0.28</v>
@@ -5776,7 +5776,7 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="6" t="n">
-        <v>42.22</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="D142" s="6" t="n">
         <v>-0.28</v>
@@ -5814,7 +5814,7 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="6" t="n">
-        <v>41.93</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D143" s="6" t="n">
         <v>-0.28</v>
@@ -5852,7 +5852,7 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="6" t="n">
-        <v>41.65</v>
+        <v>74.86</v>
       </c>
       <c r="D144" s="6" t="n">
         <v>-0.28</v>
@@ -5890,7 +5890,7 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="6" t="n">
-        <v>41.28</v>
+        <v>74.5</v>
       </c>
       <c r="D145" s="6" t="n">
         <v>-0.36</v>
@@ -5928,7 +5928,7 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="6" t="n">
-        <v>40.81</v>
+        <v>74.02</v>
       </c>
       <c r="D146" s="6" t="n">
         <v>-0.47</v>
@@ -5966,7 +5966,7 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="6" t="n">
-        <v>40.33</v>
+        <v>73.55</v>
       </c>
       <c r="D147" s="6" t="n">
         <v>-0.47</v>
@@ -6004,7 +6004,7 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="6" t="n">
-        <v>39.98</v>
+        <v>73.2</v>
       </c>
       <c r="D148" s="6" t="n">
         <v>-0.34</v>
@@ -6042,10 +6042,10 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="6" t="n">
-        <v>39.65</v>
+        <v>72.89</v>
       </c>
       <c r="D149" s="6" t="n">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E149" s="5" t="n">
         <v>12</v>
@@ -6080,10 +6080,10 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="6" t="n">
-        <v>39.23</v>
+        <v>72.59</v>
       </c>
       <c r="D150" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="E150" s="5" t="n">
         <v>12</v>
@@ -6118,10 +6118,10 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="6" t="n">
-        <v>38.81</v>
+        <v>72.3</v>
       </c>
       <c r="D151" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E151" s="5" t="n">
         <v>12</v>
@@ -6156,10 +6156,10 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="6" t="n">
-        <v>38.39</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D152" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E152" s="5" t="n">
         <v>11.933</v>
@@ -6194,7 +6194,7 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="6" t="n">
-        <v>38.04</v>
+        <v>71.66</v>
       </c>
       <c r="D153" s="6" t="n">
         <v>-0.34</v>
@@ -6232,7 +6232,7 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="6" t="n">
-        <v>37.69</v>
+        <v>71.31</v>
       </c>
       <c r="D154" s="6" t="n">
         <v>-0.34</v>
@@ -6270,7 +6270,7 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="6" t="n">
-        <v>37.34</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="D155" s="6" t="n">
         <v>-0.34</v>
@@ -6308,10 +6308,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D156" s="6" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E156" s="5" t="n">
         <v>9.667</v>
@@ -6346,7 +6346,7 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D157" s="6" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D158" s="6" t="n">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D159" s="6" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D160" s="6" t="n">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D161" s="6" t="n">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D162" s="6" t="n">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D163" s="6" t="n">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D164" s="6" t="n">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D165" s="6" t="n">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D166" s="6" t="n">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D167" s="6" t="n">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D168" s="6" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="6" t="n">
-        <v>37.22</v>
+        <v>70.92</v>
       </c>
       <c r="D169" s="6" t="n">
         <v>0.22</v>
@@ -6840,7 +6840,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="6" t="n">
-        <v>37.44</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="D170" s="6" t="n">
         <v>0.22</v>
@@ -6878,7 +6878,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="6" t="n">
-        <v>37.67</v>
+        <v>71.37</v>
       </c>
       <c r="D171" s="6" t="n">
         <v>0.22</v>
@@ -6916,7 +6916,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="6" t="n">
-        <v>37.89</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D172" s="6" t="n">
         <v>0.22</v>
@@ -6954,7 +6954,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="6" t="n">
-        <v>38.12</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="D173" s="6" t="n">
         <v>0.22</v>
@@ -6992,7 +6992,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="6" t="n">
-        <v>38.34</v>
+        <v>72.05</v>
       </c>
       <c r="D174" s="6" t="n">
         <v>0.22</v>
@@ -7030,7 +7030,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="6" t="n">
-        <v>38.57</v>
+        <v>72.27</v>
       </c>
       <c r="D175" s="6" t="n">
         <v>0.22</v>
@@ -7068,7 +7068,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="6" t="n">
-        <v>38.79</v>
+        <v>72.5</v>
       </c>
       <c r="D176" s="6" t="n">
         <v>0.22</v>
@@ -7106,7 +7106,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="6" t="n">
-        <v>39.09</v>
+        <v>72.8</v>
       </c>
       <c r="D177" s="6" t="n">
         <v>0.29</v>
@@ -7144,7 +7144,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="6" t="n">
-        <v>39.39</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D178" s="6" t="n">
         <v>0.29</v>
@@ -7182,7 +7182,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="6" t="n">
-        <v>39.69</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D179" s="6" t="n">
         <v>0.29</v>
@@ -7220,7 +7220,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="6" t="n">
-        <v>39.99</v>
+        <v>73.7</v>
       </c>
       <c r="D180" s="6" t="n">
         <v>0.29</v>
@@ -7258,7 +7258,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="6" t="n">
-        <v>40.29</v>
+        <v>74</v>
       </c>
       <c r="D181" s="6" t="n">
         <v>0.29</v>
@@ -7296,7 +7296,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="6" t="n">
-        <v>40.59</v>
+        <v>74.3</v>
       </c>
       <c r="D182" s="6" t="n">
         <v>0.29</v>
@@ -7334,7 +7334,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="6" t="n">
-        <v>40.89</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D183" s="6" t="n">
         <v>0.29</v>
@@ -7372,7 +7372,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="6" t="n">
-        <v>41.19</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D184" s="6" t="n">
         <v>0.29</v>
@@ -7410,7 +7410,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="6" t="n">
-        <v>41.49</v>
+        <v>75.2</v>
       </c>
       <c r="D185" s="6" t="n">
         <v>0.29</v>
@@ -7448,7 +7448,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="6" t="n">
-        <v>41.79</v>
+        <v>75.5</v>
       </c>
       <c r="D186" s="6" t="n">
         <v>0.29</v>
@@ -7486,7 +7486,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="6" t="n">
-        <v>42.09</v>
+        <v>75.8</v>
       </c>
       <c r="D187" s="6" t="n">
         <v>0.29</v>
@@ -7524,7 +7524,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="6" t="n">
-        <v>42.19</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D188" s="6" t="n">
         <v>0.09</v>
@@ -7562,16 +7562,16 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="6" t="n">
-        <v>42.41</v>
+        <v>76.12</v>
       </c>
       <c r="D189" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E189" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F189" s="5" t="n">
-        <v>8.833</v>
+        <v>9.067</v>
       </c>
       <c r="G189" s="5" t="n">
         <v>0</v>
@@ -7586,13 +7586,13 @@
         <v>0</v>
       </c>
       <c r="K189" s="5" t="n">
-        <v>5.833</v>
+        <v>6.067</v>
       </c>
       <c r="N189" s="5" t="n">
-        <v>5.833333333333333</v>
+        <v>6.066666666666667</v>
       </c>
       <c r="O189" s="5" t="n">
-        <v>60.65333333333393</v>
+        <v>60.71944444444504</v>
       </c>
     </row>
     <row r="190">
@@ -7600,7 +7600,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="6" t="n">
-        <v>42.66</v>
+        <v>76.37</v>
       </c>
       <c r="D190" s="6" t="n">
         <v>0.24</v>
@@ -7630,7 +7630,7 @@
         <v>7</v>
       </c>
       <c r="O190" s="5" t="n">
-        <v>62.63666666666743</v>
+        <v>62.70277777777855</v>
       </c>
     </row>
     <row r="191">
@@ -7638,7 +7638,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="6" t="n">
-        <v>42.91</v>
+        <v>76.62</v>
       </c>
       <c r="D191" s="6" t="n">
         <v>0.24</v>
@@ -7668,7 +7668,7 @@
         <v>7</v>
       </c>
       <c r="O191" s="5" t="n">
-        <v>64.62000000000089</v>
+        <v>64.68611111111201</v>
       </c>
     </row>
     <row r="192">
@@ -7676,7 +7676,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="6" t="n">
-        <v>43.16</v>
+        <v>76.87</v>
       </c>
       <c r="D192" s="6" t="n">
         <v>0.24</v>
@@ -7706,7 +7706,7 @@
         <v>7</v>
       </c>
       <c r="O192" s="5" t="n">
-        <v>66.60333333333439</v>
+        <v>66.6694444444455</v>
       </c>
     </row>
     <row r="193">
@@ -7714,7 +7714,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="6" t="n">
-        <v>43.38</v>
+        <v>77.09</v>
       </c>
       <c r="D193" s="6" t="n">
         <v>0.22</v>
@@ -7744,7 +7744,7 @@
         <v>7</v>
       </c>
       <c r="O193" s="5" t="n">
-        <v>68.58666666666785</v>
+        <v>68.65277777777897</v>
       </c>
     </row>
     <row r="194">
@@ -7752,7 +7752,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="6" t="n">
-        <v>43.61</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="D194" s="6" t="n">
         <v>0.22</v>
@@ -7782,7 +7782,7 @@
         <v>7</v>
       </c>
       <c r="O194" s="5" t="n">
-        <v>70.57000000000136</v>
+        <v>70.63611111111247</v>
       </c>
     </row>
     <row r="195">
@@ -7790,7 +7790,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="6" t="n">
-        <v>43.83</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D195" s="6" t="n">
         <v>0.22</v>
@@ -7820,7 +7820,7 @@
         <v>7</v>
       </c>
       <c r="O195" s="5" t="n">
-        <v>72.55333333333482</v>
+        <v>72.61944444444593</v>
       </c>
     </row>
     <row r="196">
@@ -7828,7 +7828,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="6" t="n">
-        <v>44.06</v>
+        <v>77.77</v>
       </c>
       <c r="D196" s="6" t="n">
         <v>0.22</v>
@@ -7858,7 +7858,7 @@
         <v>7</v>
       </c>
       <c r="O196" s="5" t="n">
-        <v>74.53666666666831</v>
+        <v>74.60277777777942</v>
       </c>
     </row>
     <row r="197">
@@ -7866,7 +7866,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="6" t="n">
-        <v>44.26</v>
+        <v>77.97</v>
       </c>
       <c r="D197" s="6" t="n">
         <v>0.19</v>
@@ -7896,7 +7896,7 @@
         <v>7</v>
       </c>
       <c r="O197" s="5" t="n">
-        <v>76.52000000000177</v>
+        <v>76.58611111111288</v>
       </c>
     </row>
     <row r="198">
@@ -7904,7 +7904,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="6" t="n">
-        <v>44.46</v>
+        <v>78.17</v>
       </c>
       <c r="D198" s="6" t="n">
         <v>0.19</v>
@@ -7934,7 +7934,7 @@
         <v>7</v>
       </c>
       <c r="O198" s="5" t="n">
-        <v>78.50333333333528</v>
+        <v>78.5694444444464</v>
       </c>
     </row>
     <row r="199">
@@ -7942,7 +7942,7 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="6" t="n">
-        <v>44.62</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="D199" s="6" t="n">
         <v>0.15</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F199" s="5" t="n">
-        <v>6.133</v>
+        <v>5.9</v>
       </c>
       <c r="G199" s="5" t="n">
         <v>0</v>
@@ -7966,10 +7966,10 @@
         <v>0</v>
       </c>
       <c r="K199" s="5" t="n">
-        <v>5.133</v>
+        <v>4.9</v>
       </c>
       <c r="N199" s="5" t="n">
-        <v>5.133333333333333</v>
+        <v>4.9</v>
       </c>
       <c r="O199" s="5" t="n">
         <v>80.02388888889092</v>
@@ -7980,7 +7980,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="6" t="n">
-        <v>44.64</v>
+        <v>78.34</v>
       </c>
       <c r="D200" s="6" t="n">
         <v>0.02</v>
@@ -8018,7 +8018,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="6" t="n">
-        <v>44.67</v>
+        <v>78.37</v>
       </c>
       <c r="D201" s="6" t="n">
         <v>0.02</v>
@@ -8056,7 +8056,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="6" t="n">
-        <v>44.69</v>
+        <v>78.39</v>
       </c>
       <c r="D202" s="6" t="n">
         <v>0.02</v>
@@ -8094,7 +8094,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="6" t="n">
-        <v>44.72</v>
+        <v>78.42</v>
       </c>
       <c r="D203" s="6" t="n">
         <v>0.02</v>
@@ -8132,7 +8132,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="6" t="n">
-        <v>44.74</v>
+        <v>78.44</v>
       </c>
       <c r="D204" s="6" t="n">
         <v>0.02</v>
@@ -8170,7 +8170,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="6" t="n">
-        <v>44.77</v>
+        <v>78.47</v>
       </c>
       <c r="D205" s="6" t="n">
         <v>0.02</v>
@@ -8208,7 +8208,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="6" t="n">
-        <v>44.79</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="D206" s="6" t="n">
         <v>0.02</v>
@@ -8246,7 +8246,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="6" t="n">
-        <v>44.82</v>
+        <v>78.52</v>
       </c>
       <c r="D207" s="6" t="n">
         <v>0.02</v>
@@ -8284,7 +8284,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="6" t="n">
-        <v>44.84</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="D208" s="6" t="n">
         <v>0.02</v>
@@ -8322,7 +8322,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="6" t="n">
-        <v>44.87</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D209" s="6" t="n">
         <v>0.02</v>
@@ -8360,7 +8360,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="6" t="n">
-        <v>44.89</v>
+        <v>78.59</v>
       </c>
       <c r="D210" s="6" t="n">
         <v>0.02</v>
@@ -8398,7 +8398,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="6" t="n">
-        <v>44.92</v>
+        <v>78.62</v>
       </c>
       <c r="D211" s="6" t="n">
         <v>0.02</v>
@@ -8436,7 +8436,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="6" t="n">
-        <v>44.94</v>
+        <v>78.64</v>
       </c>
       <c r="D212" s="6" t="n">
         <v>0.02</v>
@@ -8474,7 +8474,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="6" t="n">
-        <v>44.97</v>
+        <v>78.67</v>
       </c>
       <c r="D213" s="6" t="n">
         <v>0.02</v>
@@ -8512,7 +8512,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="6" t="n">
-        <v>44.99</v>
+        <v>78.69</v>
       </c>
       <c r="D214" s="6" t="n">
         <v>0.02</v>
@@ -8550,7 +8550,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="6" t="n">
-        <v>45.02</v>
+        <v>78.72</v>
       </c>
       <c r="D215" s="6" t="n">
         <v>0.02</v>
@@ -8588,7 +8588,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="6" t="n">
-        <v>45.04</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="D216" s="6" t="n">
         <v>0.02</v>
@@ -8626,7 +8626,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="6" t="n">
-        <v>45.12</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="D217" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -8664,7 +8664,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="6" t="n">
-        <v>45.19</v>
+        <v>78.89</v>
       </c>
       <c r="D218" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -8702,7 +8702,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="6" t="n">
-        <v>45.27</v>
+        <v>78.97</v>
       </c>
       <c r="D219" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -8740,7 +8740,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="6" t="n">
-        <v>45.49</v>
+        <v>79.19</v>
       </c>
       <c r="D220" s="6" t="n">
         <v>0.22</v>
@@ -8778,7 +8778,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="6" t="n">
-        <v>45.79</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="D221" s="6" t="n">
         <v>0.29</v>
@@ -8816,7 +8816,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="6" t="n">
-        <v>46.09</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="D222" s="6" t="n">
         <v>0.29</v>
@@ -8854,7 +8854,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="6" t="n">
-        <v>46.39</v>
+        <v>80.09</v>
       </c>
       <c r="D223" s="6" t="n">
         <v>0.29</v>
@@ -8892,7 +8892,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="6" t="n">
-        <v>46.69</v>
+        <v>80.39</v>
       </c>
       <c r="D224" s="6" t="n">
         <v>0.29</v>
@@ -8930,7 +8930,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="6" t="n">
-        <v>46.99</v>
+        <v>80.69</v>
       </c>
       <c r="D225" s="6" t="n">
         <v>0.29</v>
@@ -8968,7 +8968,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="6" t="n">
-        <v>47.29</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="D226" s="6" t="n">
         <v>0.29</v>
@@ -9006,7 +9006,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="6" t="n">
-        <v>47.59</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="D227" s="6" t="n">
         <v>0.29</v>
@@ -9044,7 +9044,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D228" s="6" t="n">
         <v>0.29</v>
@@ -9082,7 +9082,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D229" s="6" t="n">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D230" s="6" t="n">
         <v>0</v>
@@ -9158,7 +9158,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D231" s="6" t="n">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D232" s="6" t="n">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="6" t="n">
-        <v>47.8</v>
+        <v>81.5</v>
       </c>
       <c r="D233" s="6" t="n">
         <v>-0.09</v>
@@ -9272,7 +9272,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="6" t="n">
-        <v>47.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D234" s="6" t="n">
         <v>-0.09</v>
@@ -9310,7 +9310,7 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="6" t="n">
-        <v>47.61</v>
+        <v>81.31</v>
       </c>
       <c r="D235" s="6" t="n">
         <v>-0.09</v>
@@ -9348,7 +9348,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="6" t="n">
-        <v>47.51</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="D236" s="6" t="n">
         <v>-0.09</v>
@@ -9386,7 +9386,7 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="6" t="n">
-        <v>47.23</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="D237" s="6" t="n">
         <v>-0.28</v>
@@ -9424,7 +9424,7 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="6" t="n">
-        <v>46.94</v>
+        <v>80.64</v>
       </c>
       <c r="D238" s="6" t="n">
         <v>-0.28</v>
@@ -9462,7 +9462,7 @@
         <v>44230.44791666666</v>
       </c>
       <c r="C239" s="6" t="n">
-        <v>46.66</v>
+        <v>80.36</v>
       </c>
       <c r="D239" s="6" t="n">
         <v>-0.28</v>
@@ -9500,7 +9500,7 @@
         <v>44230.45833333334</v>
       </c>
       <c r="C240" s="6" t="n">
-        <v>46.37</v>
+        <v>80.06999999999999</v>
       </c>
       <c r="D240" s="6" t="n">
         <v>-0.28</v>
@@ -9538,7 +9538,7 @@
         <v>44230.46875</v>
       </c>
       <c r="C241" s="6" t="n">
-        <v>46.01</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="D241" s="6" t="n">
         <v>-0.36</v>
@@ -9576,7 +9576,7 @@
         <v>44230.47916666666</v>
       </c>
       <c r="C242" s="6" t="n">
-        <v>45.53</v>
+        <v>79.23</v>
       </c>
       <c r="D242" s="6" t="n">
         <v>-0.47</v>
@@ -9614,7 +9614,7 @@
         <v>44230.48958333334</v>
       </c>
       <c r="C243" s="6" t="n">
-        <v>45.06</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="D243" s="6" t="n">
         <v>-0.47</v>
@@ -9652,7 +9652,7 @@
         <v>44230.5</v>
       </c>
       <c r="C244" s="6" t="n">
-        <v>44.71</v>
+        <v>78.41</v>
       </c>
       <c r="D244" s="6" t="n">
         <v>-0.34</v>
@@ -9690,10 +9690,10 @@
         <v>44230.51041666666</v>
       </c>
       <c r="C245" s="6" t="n">
-        <v>44.38</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D245" s="6" t="n">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E245" s="5" t="n">
         <v>12</v>
@@ -9728,10 +9728,10 @@
         <v>44230.52083333334</v>
       </c>
       <c r="C246" s="6" t="n">
-        <v>43.96</v>
+        <v>77.8</v>
       </c>
       <c r="D246" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="E246" s="5" t="n">
         <v>12</v>
@@ -9766,10 +9766,10 @@
         <v>44230.53125</v>
       </c>
       <c r="C247" s="6" t="n">
-        <v>43.54</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="D247" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E247" s="5" t="n">
         <v>12</v>
@@ -9804,10 +9804,10 @@
         <v>44230.54166666666</v>
       </c>
       <c r="C248" s="6" t="n">
-        <v>43.12</v>
+        <v>77.22</v>
       </c>
       <c r="D248" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E248" s="5" t="n">
         <v>11.933</v>
@@ -9842,7 +9842,7 @@
         <v>44230.55208333334</v>
       </c>
       <c r="C249" s="6" t="n">
-        <v>42.77</v>
+        <v>76.87</v>
       </c>
       <c r="D249" s="6" t="n">
         <v>-0.34</v>
@@ -9880,7 +9880,7 @@
         <v>44230.5625</v>
       </c>
       <c r="C250" s="6" t="n">
-        <v>42.42</v>
+        <v>76.52</v>
       </c>
       <c r="D250" s="6" t="n">
         <v>-0.34</v>
@@ -9918,7 +9918,7 @@
         <v>44230.57291666666</v>
       </c>
       <c r="C251" s="6" t="n">
-        <v>42.07</v>
+        <v>76.17</v>
       </c>
       <c r="D251" s="6" t="n">
         <v>-0.34</v>
@@ -9956,10 +9956,10 @@
         <v>44230.58333333334</v>
       </c>
       <c r="C252" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D252" s="6" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E252" s="5" t="n">
         <v>9.667</v>
@@ -9994,7 +9994,7 @@
         <v>44230.59375</v>
       </c>
       <c r="C253" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D253" s="6" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>44230.60416666666</v>
       </c>
       <c r="C254" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D254" s="6" t="n">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>44230.61458333334</v>
       </c>
       <c r="C255" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D255" s="6" t="n">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>44230.625</v>
       </c>
       <c r="C256" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D256" s="6" t="n">
         <v>0</v>
@@ -10146,7 +10146,7 @@
         <v>44230.63541666666</v>
       </c>
       <c r="C257" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D257" s="6" t="n">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>44230.64583333334</v>
       </c>
       <c r="C258" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D258" s="6" t="n">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>44230.65625</v>
       </c>
       <c r="C259" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D259" s="6" t="n">
         <v>0</v>
@@ -10260,7 +10260,7 @@
         <v>44230.66666666666</v>
       </c>
       <c r="C260" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D260" s="6" t="n">
         <v>0</v>
@@ -10298,7 +10298,7 @@
         <v>44230.67708333334</v>
       </c>
       <c r="C261" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D261" s="6" t="n">
         <v>0</v>
@@ -10336,7 +10336,7 @@
         <v>44230.6875</v>
       </c>
       <c r="C262" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D262" s="6" t="n">
         <v>0</v>
@@ -10374,7 +10374,7 @@
         <v>44230.69791666666</v>
       </c>
       <c r="C263" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D263" s="6" t="n">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>44230.70833333334</v>
       </c>
       <c r="C264" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D264" s="6" t="n">
         <v>0</v>
@@ -10450,7 +10450,7 @@
         <v>44230.71875</v>
       </c>
       <c r="C265" s="6" t="n">
-        <v>41.94</v>
+        <v>76.13</v>
       </c>
       <c r="D265" s="6" t="n">
         <v>0.22</v>
@@ -10488,7 +10488,7 @@
         <v>44230.72916666666</v>
       </c>
       <c r="C266" s="6" t="n">
-        <v>42.17</v>
+        <v>76.36</v>
       </c>
       <c r="D266" s="6" t="n">
         <v>0.22</v>
@@ -10526,7 +10526,7 @@
         <v>44230.73958333334</v>
       </c>
       <c r="C267" s="6" t="n">
-        <v>42.39</v>
+        <v>76.58</v>
       </c>
       <c r="D267" s="6" t="n">
         <v>0.22</v>
@@ -10564,7 +10564,7 @@
         <v>44230.75</v>
       </c>
       <c r="C268" s="6" t="n">
-        <v>42.62</v>
+        <v>76.81</v>
       </c>
       <c r="D268" s="6" t="n">
         <v>0.22</v>
@@ -10602,7 +10602,7 @@
         <v>44230.76041666666</v>
       </c>
       <c r="C269" s="6" t="n">
-        <v>42.84</v>
+        <v>77.03</v>
       </c>
       <c r="D269" s="6" t="n">
         <v>0.22</v>
@@ -10640,7 +10640,7 @@
         <v>44230.77083333334</v>
       </c>
       <c r="C270" s="6" t="n">
-        <v>43.07</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D270" s="6" t="n">
         <v>0.22</v>
@@ -10678,7 +10678,7 @@
         <v>44230.78125</v>
       </c>
       <c r="C271" s="6" t="n">
-        <v>43.29</v>
+        <v>77.48</v>
       </c>
       <c r="D271" s="6" t="n">
         <v>0.22</v>
@@ -10716,7 +10716,7 @@
         <v>44230.79166666666</v>
       </c>
       <c r="C272" s="6" t="n">
-        <v>43.52</v>
+        <v>77.70999999999999</v>
       </c>
       <c r="D272" s="6" t="n">
         <v>0.22</v>
@@ -10754,7 +10754,7 @@
         <v>44230.80208333334</v>
       </c>
       <c r="C273" s="6" t="n">
-        <v>43.82</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="D273" s="6" t="n">
         <v>0.29</v>
@@ -10792,7 +10792,7 @@
         <v>44230.8125</v>
       </c>
       <c r="C274" s="6" t="n">
-        <v>44.12</v>
+        <v>78.31</v>
       </c>
       <c r="D274" s="6" t="n">
         <v>0.29</v>
@@ -10830,7 +10830,7 @@
         <v>44230.82291666666</v>
       </c>
       <c r="C275" s="6" t="n">
-        <v>44.42</v>
+        <v>78.61</v>
       </c>
       <c r="D275" s="6" t="n">
         <v>0.29</v>
@@ -10868,7 +10868,7 @@
         <v>44230.83333333334</v>
       </c>
       <c r="C276" s="6" t="n">
-        <v>44.72</v>
+        <v>78.91</v>
       </c>
       <c r="D276" s="6" t="n">
         <v>0.29</v>
@@ -10906,7 +10906,7 @@
         <v>44230.84375</v>
       </c>
       <c r="C277" s="6" t="n">
-        <v>45.02</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="D277" s="6" t="n">
         <v>0.29</v>
@@ -10944,7 +10944,7 @@
         <v>44230.85416666666</v>
       </c>
       <c r="C278" s="6" t="n">
-        <v>45.32</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D278" s="6" t="n">
         <v>0.29</v>
@@ -10982,7 +10982,7 @@
         <v>44230.86458333334</v>
       </c>
       <c r="C279" s="6" t="n">
-        <v>45.62</v>
+        <v>79.81</v>
       </c>
       <c r="D279" s="6" t="n">
         <v>0.29</v>
@@ -11020,7 +11020,7 @@
         <v>44230.875</v>
       </c>
       <c r="C280" s="6" t="n">
-        <v>45.92</v>
+        <v>80.11</v>
       </c>
       <c r="D280" s="6" t="n">
         <v>0.29</v>
@@ -11058,7 +11058,7 @@
         <v>44230.88541666666</v>
       </c>
       <c r="C281" s="6" t="n">
-        <v>46.22</v>
+        <v>80.41</v>
       </c>
       <c r="D281" s="6" t="n">
         <v>0.29</v>
@@ -11096,7 +11096,7 @@
         <v>44230.89583333334</v>
       </c>
       <c r="C282" s="6" t="n">
-        <v>46.52</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="D282" s="6" t="n">
         <v>0.29</v>
@@ -11134,7 +11134,7 @@
         <v>44230.90625</v>
       </c>
       <c r="C283" s="6" t="n">
-        <v>46.82</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="D283" s="6" t="n">
         <v>0.29</v>
@@ -11172,7 +11172,7 @@
         <v>44230.91666666666</v>
       </c>
       <c r="C284" s="6" t="n">
-        <v>46.92</v>
+        <v>81.11</v>
       </c>
       <c r="D284" s="6" t="n">
         <v>0.09</v>
@@ -11210,16 +11210,16 @@
         <v>44230.92708333334</v>
       </c>
       <c r="C285" s="6" t="n">
-        <v>47.13</v>
+        <v>81.33</v>
       </c>
       <c r="D285" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E285" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F285" s="5" t="n">
-        <v>8.833</v>
+        <v>9.067</v>
       </c>
       <c r="G285" s="5" t="n">
         <v>0</v>
@@ -11234,13 +11234,13 @@
         <v>0</v>
       </c>
       <c r="K285" s="5" t="n">
-        <v>5.833</v>
+        <v>6.067</v>
       </c>
       <c r="N285" s="5" t="n">
-        <v>5.833333333333333</v>
+        <v>6.066666666666667</v>
       </c>
       <c r="O285" s="5" t="n">
-        <v>60.65333333333393</v>
+        <v>60.71944444444504</v>
       </c>
     </row>
     <row r="286">
@@ -11248,7 +11248,7 @@
         <v>44230.9375</v>
       </c>
       <c r="C286" s="6" t="n">
-        <v>47.38</v>
+        <v>81.58</v>
       </c>
       <c r="D286" s="6" t="n">
         <v>0.24</v>
@@ -11278,7 +11278,7 @@
         <v>7</v>
       </c>
       <c r="O286" s="5" t="n">
-        <v>62.63666666666743</v>
+        <v>62.70277777777855</v>
       </c>
     </row>
     <row r="287">
@@ -11286,7 +11286,7 @@
         <v>44230.94791666666</v>
       </c>
       <c r="C287" s="6" t="n">
-        <v>47.63</v>
+        <v>81.83</v>
       </c>
       <c r="D287" s="6" t="n">
         <v>0.24</v>
@@ -11316,7 +11316,7 @@
         <v>7</v>
       </c>
       <c r="O287" s="5" t="n">
-        <v>64.62000000000089</v>
+        <v>64.68611111111201</v>
       </c>
     </row>
     <row r="288">
@@ -11324,7 +11324,7 @@
         <v>44230.95833333334</v>
       </c>
       <c r="C288" s="6" t="n">
-        <v>47.88</v>
+        <v>82.08</v>
       </c>
       <c r="D288" s="6" t="n">
         <v>0.24</v>
@@ -11354,7 +11354,7 @@
         <v>7</v>
       </c>
       <c r="O288" s="5" t="n">
-        <v>66.60333333333439</v>
+        <v>66.6694444444455</v>
       </c>
     </row>
     <row r="289">
@@ -11362,7 +11362,7 @@
         <v>44230.96875</v>
       </c>
       <c r="C289" s="6" t="n">
-        <v>48.11</v>
+        <v>82.3</v>
       </c>
       <c r="D289" s="6" t="n">
         <v>0.22</v>
@@ -11392,7 +11392,7 @@
         <v>7</v>
       </c>
       <c r="O289" s="5" t="n">
-        <v>68.58666666666785</v>
+        <v>68.65277777777897</v>
       </c>
     </row>
     <row r="290">
@@ -11400,7 +11400,7 @@
         <v>44230.97916666666</v>
       </c>
       <c r="C290" s="6" t="n">
-        <v>48.33</v>
+        <v>82.53</v>
       </c>
       <c r="D290" s="6" t="n">
         <v>0.22</v>
@@ -11430,7 +11430,7 @@
         <v>7</v>
       </c>
       <c r="O290" s="5" t="n">
-        <v>70.57000000000136</v>
+        <v>70.63611111111247</v>
       </c>
     </row>
     <row r="291">
@@ -11438,7 +11438,7 @@
         <v>44230.98958333334</v>
       </c>
       <c r="C291" s="6" t="n">
-        <v>48.56</v>
+        <v>82.75</v>
       </c>
       <c r="D291" s="6" t="n">
         <v>0.22</v>
@@ -11468,7 +11468,7 @@
         <v>7</v>
       </c>
       <c r="O291" s="5" t="n">
-        <v>72.55333333333482</v>
+        <v>72.61944444444593</v>
       </c>
     </row>
   </sheetData>
@@ -11571,7 +11571,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>32.45</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0</v>
@@ -11609,13 +11609,13 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>32.62</v>
+        <v>65.38</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.708</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -11633,13 +11633,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.458</v>
+        <v>1.75</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.458333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>51.65277777777791</v>
+        <v>51.9833333333335</v>
       </c>
     </row>
     <row r="6">
@@ -11647,7 +11647,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32.82</v>
+        <v>65.58</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.19</v>
@@ -11677,7 +11677,7 @@
         <v>1.75</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>53.63611111111143</v>
+        <v>53.96666666666698</v>
       </c>
     </row>
     <row r="7">
@@ -11685,7 +11685,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33.02</v>
+        <v>65.78</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.19</v>
@@ -11715,7 +11715,7 @@
         <v>1.75</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>55.61944444444489</v>
+        <v>55.95000000000046</v>
       </c>
     </row>
     <row r="8">
@@ -11723,7 +11723,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>33.22</v>
+        <v>65.98</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>0.19</v>
@@ -11753,7 +11753,7 @@
         <v>1.75</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>57.60277777777838</v>
+        <v>57.93333333333396</v>
       </c>
     </row>
     <row r="9">
@@ -11761,7 +11761,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>33.42</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>0.19</v>
@@ -11791,7 +11791,7 @@
         <v>1.75</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>59.58611111111184</v>
+        <v>59.91666666666743</v>
       </c>
     </row>
     <row r="10">
@@ -11799,7 +11799,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33.62</v>
+        <v>66.38</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0.19</v>
@@ -11829,7 +11829,7 @@
         <v>1.75</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>61.56944444444535</v>
+        <v>61.90000000000091</v>
       </c>
     </row>
     <row r="11">
@@ -11837,7 +11837,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33.82</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>0.19</v>
@@ -11867,7 +11867,7 @@
         <v>1.75</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>63.55277777777881</v>
+        <v>63.88333333333439</v>
       </c>
     </row>
     <row r="12">
@@ -11875,7 +11875,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>34.02</v>
+        <v>66.77</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0.19</v>
@@ -11905,7 +11905,7 @@
         <v>1.75</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>65.53611111111231</v>
+        <v>65.86666666666788</v>
       </c>
     </row>
     <row r="13">
@@ -11913,7 +11913,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>34.22</v>
+        <v>66.97</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.19</v>
@@ -11943,7 +11943,7 @@
         <v>1.75</v>
       </c>
       <c r="O13" s="5" t="n">
-        <v>67.51944444444577</v>
+        <v>67.85000000000136</v>
       </c>
     </row>
     <row r="14">
@@ -11951,7 +11951,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34.42</v>
+        <v>67.17</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0.19</v>
@@ -11981,7 +11981,7 @@
         <v>1.75</v>
       </c>
       <c r="O14" s="5" t="n">
-        <v>69.50277777777927</v>
+        <v>69.83333333333486</v>
       </c>
     </row>
     <row r="15">
@@ -11989,7 +11989,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34.62</v>
+        <v>67.37</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>0.19</v>
@@ -12019,7 +12019,7 @@
         <v>1.75</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>71.48611111111273</v>
+        <v>71.81666666666831</v>
       </c>
     </row>
     <row r="16">
@@ -12027,7 +12027,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>34.82</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>0.19</v>
@@ -12057,7 +12057,7 @@
         <v>1.75</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>73.46944444444622</v>
+        <v>73.8000000000018</v>
       </c>
     </row>
     <row r="17">
@@ -12065,7 +12065,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>35.02</v>
+        <v>67.77</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>0.19</v>
@@ -12095,7 +12095,7 @@
         <v>1.75</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>75.45277777777969</v>
+        <v>75.78333333333528</v>
       </c>
     </row>
     <row r="18">
@@ -12103,7 +12103,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35.22</v>
+        <v>67.97</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0.19</v>
@@ -12133,7 +12133,7 @@
         <v>1.75</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>77.43611111111321</v>
+        <v>77.76666666666878</v>
       </c>
     </row>
     <row r="19">
@@ -12141,7 +12141,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35.42</v>
+        <v>68.17</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.19</v>
@@ -12171,7 +12171,7 @@
         <v>1.75</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>79.41944444444667</v>
+        <v>79.75000000000225</v>
       </c>
     </row>
     <row r="20">
@@ -12179,13 +12179,13 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>35.49</v>
+        <v>68.22</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.775</v>
+        <v>0.483</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -12203,10 +12203,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.525</v>
+        <v>0.233</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.525</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="O20" s="5" t="n">
         <v>80.01444444444671</v>
@@ -12217,7 +12217,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>35.52</v>
+        <v>68.25</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>0.02</v>
@@ -12255,7 +12255,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35.54</v>
+        <v>68.27</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0.02</v>
@@ -12293,7 +12293,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35.57</v>
+        <v>68.3</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>0.02</v>
@@ -12331,7 +12331,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>35.59</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>0.02</v>
@@ -12369,7 +12369,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>35.67</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -12407,7 +12407,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>35.74</v>
+        <v>68.47</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -12445,7 +12445,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35.82</v>
+        <v>68.55</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -12483,7 +12483,7 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>36.04</v>
+        <v>68.77</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>0.22</v>
@@ -12521,7 +12521,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>36.34</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>0.29</v>
@@ -12559,7 +12559,7 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36.64</v>
+        <v>69.37</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0.29</v>
@@ -12597,7 +12597,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>36.94</v>
+        <v>69.67</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.29</v>
@@ -12635,7 +12635,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>37.24</v>
+        <v>69.97</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>0.29</v>
@@ -12673,7 +12673,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>37.54</v>
+        <v>70.27</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>0.29</v>
@@ -12711,7 +12711,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>37.84</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0.29</v>
@@ -12749,7 +12749,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>38.14</v>
+        <v>70.87</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>0.29</v>
@@ -12787,7 +12787,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>0.29</v>
@@ -12825,7 +12825,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>0</v>
@@ -12863,7 +12863,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
@@ -12901,7 +12901,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>38.44</v>
+        <v>71.17</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>0</v>
@@ -12977,7 +12977,7 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>38.35</v>
+        <v>71.08</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>-0.09</v>
@@ -13015,7 +13015,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>38.25</v>
+        <v>70.98</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>-0.09</v>
@@ -13053,7 +13053,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>38.16</v>
+        <v>70.89</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>-0.09</v>
@@ -13091,7 +13091,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="6" t="n">
-        <v>38.06</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>-0.09</v>
@@ -13129,7 +13129,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>37.78</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>-0.28</v>
@@ -13167,7 +13167,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>37.49</v>
+        <v>70.22</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>-0.28</v>
@@ -13205,7 +13205,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="6" t="n">
-        <v>37.21</v>
+        <v>69.94</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>-0.28</v>
@@ -13243,7 +13243,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="6" t="n">
-        <v>36.92</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>-0.28</v>
@@ -13281,7 +13281,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>36.56</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>-0.36</v>
@@ -13319,7 +13319,7 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>36.08</v>
+        <v>68.81</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>-0.47</v>
@@ -13357,7 +13357,7 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="6" t="n">
-        <v>35.61</v>
+        <v>68.34</v>
       </c>
       <c r="D51" s="6" t="n">
         <v>-0.47</v>
@@ -13395,7 +13395,7 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="6" t="n">
-        <v>35.26</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D52" s="6" t="n">
         <v>-0.34</v>
@@ -13433,10 +13433,10 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="6" t="n">
-        <v>34.93</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>0</v>
@@ -13471,10 +13471,10 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>34.51</v>
+        <v>67.38</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>0</v>
@@ -13509,10 +13509,10 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>34.09</v>
+        <v>67.09</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>0</v>
@@ -13547,10 +13547,10 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>33.67</v>
+        <v>66.8</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>0</v>
@@ -13585,7 +13585,7 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="6" t="n">
-        <v>33.32</v>
+        <v>66.45</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>-0.34</v>
@@ -13623,7 +13623,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="6" t="n">
-        <v>32.97</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>-0.34</v>
@@ -13661,7 +13661,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="6" t="n">
-        <v>32.62</v>
+        <v>65.75</v>
       </c>
       <c r="D59" s="6" t="n">
         <v>-0.34</v>
@@ -13699,10 +13699,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>0</v>
@@ -13737,7 +13737,7 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D61" s="6" t="n">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D62" s="6" t="n">
         <v>0</v>
@@ -13813,7 +13813,7 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D63" s="6" t="n">
         <v>0</v>
@@ -13851,7 +13851,7 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D64" s="6" t="n">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D65" s="6" t="n">
         <v>0</v>
@@ -13927,7 +13927,7 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>0</v>
@@ -13965,7 +13965,7 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>0</v>
@@ -14003,7 +14003,7 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>0</v>
@@ -14079,7 +14079,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>0</v>
@@ -14117,7 +14117,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D71" s="6" t="n">
         <v>0</v>
@@ -14155,7 +14155,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="6" t="n">
-        <v>32.27</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D72" s="6" t="n">
         <v>0</v>
@@ -14193,7 +14193,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="6" t="n">
-        <v>32.49</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D73" s="6" t="n">
         <v>0.22</v>
@@ -14231,7 +14231,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="6" t="n">
-        <v>32.72</v>
+        <v>65.94</v>
       </c>
       <c r="D74" s="6" t="n">
         <v>0.22</v>
@@ -14269,7 +14269,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="6" t="n">
-        <v>32.94</v>
+        <v>66.16</v>
       </c>
       <c r="D75" s="6" t="n">
         <v>0.22</v>
@@ -14307,7 +14307,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="6" t="n">
-        <v>33.17</v>
+        <v>66.39</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>0.22</v>
@@ -14345,7 +14345,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="6" t="n">
-        <v>33.39</v>
+        <v>66.61</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>0.22</v>
@@ -14383,7 +14383,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="6" t="n">
-        <v>33.62</v>
+        <v>66.84</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>0.22</v>
@@ -14421,7 +14421,7 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="6" t="n">
-        <v>33.84</v>
+        <v>67.06</v>
       </c>
       <c r="D79" s="6" t="n">
         <v>0.22</v>
@@ -14459,7 +14459,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="6" t="n">
-        <v>34.07</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="D80" s="6" t="n">
         <v>0.22</v>
@@ -14497,7 +14497,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="6" t="n">
-        <v>34.37</v>
+        <v>67.59</v>
       </c>
       <c r="D81" s="6" t="n">
         <v>0.29</v>
@@ -14535,7 +14535,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="6" t="n">
-        <v>34.67</v>
+        <v>67.89</v>
       </c>
       <c r="D82" s="6" t="n">
         <v>0.29</v>
@@ -14573,7 +14573,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="6" t="n">
-        <v>34.97</v>
+        <v>68.19</v>
       </c>
       <c r="D83" s="6" t="n">
         <v>0.29</v>
@@ -14611,7 +14611,7 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="6" t="n">
-        <v>35.27</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="D84" s="6" t="n">
         <v>0.29</v>
@@ -14649,7 +14649,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="6" t="n">
-        <v>35.57</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D85" s="6" t="n">
         <v>0.29</v>
@@ -14687,7 +14687,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="6" t="n">
-        <v>35.87</v>
+        <v>69.09</v>
       </c>
       <c r="D86" s="6" t="n">
         <v>0.29</v>
@@ -14725,7 +14725,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="6" t="n">
-        <v>36.17</v>
+        <v>69.39</v>
       </c>
       <c r="D87" s="6" t="n">
         <v>0.29</v>
@@ -14763,7 +14763,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="6" t="n">
-        <v>36.47</v>
+        <v>69.69</v>
       </c>
       <c r="D88" s="6" t="n">
         <v>0.29</v>
@@ -14801,7 +14801,7 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="6" t="n">
-        <v>36.77</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D89" s="6" t="n">
         <v>0.29</v>
@@ -14839,7 +14839,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="6" t="n">
-        <v>37.07</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="D90" s="6" t="n">
         <v>0.29</v>
@@ -14877,7 +14877,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="6" t="n">
-        <v>37.37</v>
+        <v>70.59</v>
       </c>
       <c r="D91" s="6" t="n">
         <v>0.29</v>
@@ -14915,7 +14915,7 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="6" t="n">
-        <v>37.47</v>
+        <v>70.69</v>
       </c>
       <c r="D92" s="6" t="n">
         <v>0.09</v>
@@ -14953,13 +14953,13 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="6" t="n">
-        <v>37.68</v>
+        <v>70.91</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>2.15</v>
+        <v>2.208</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>0</v>
@@ -14977,13 +14977,13 @@
         <v>0</v>
       </c>
       <c r="K93" s="5" t="n">
-        <v>1.4</v>
+        <v>1.458</v>
       </c>
       <c r="N93" s="5" t="n">
-        <v>1.4</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="O93" s="5" t="n">
-        <v>60.65333333333393</v>
+        <v>60.71944444444504</v>
       </c>
     </row>
     <row r="94">
@@ -14991,7 +14991,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="6" t="n">
-        <v>37.93</v>
+        <v>71.16</v>
       </c>
       <c r="D94" s="6" t="n">
         <v>0.24</v>
@@ -15021,7 +15021,7 @@
         <v>1.75</v>
       </c>
       <c r="O94" s="5" t="n">
-        <v>62.63666666666743</v>
+        <v>62.70277777777855</v>
       </c>
     </row>
     <row r="95">
@@ -15029,7 +15029,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="6" t="n">
-        <v>38.18</v>
+        <v>71.41</v>
       </c>
       <c r="D95" s="6" t="n">
         <v>0.24</v>
@@ -15059,7 +15059,7 @@
         <v>1.75</v>
       </c>
       <c r="O95" s="5" t="n">
-        <v>64.62000000000089</v>
+        <v>64.68611111111201</v>
       </c>
     </row>
     <row r="96">
@@ -15067,7 +15067,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="6" t="n">
-        <v>38.43</v>
+        <v>71.66</v>
       </c>
       <c r="D96" s="6" t="n">
         <v>0.24</v>
@@ -15097,7 +15097,7 @@
         <v>1.75</v>
       </c>
       <c r="O96" s="5" t="n">
-        <v>66.60333333333439</v>
+        <v>66.6694444444455</v>
       </c>
     </row>
     <row r="97">
@@ -15105,7 +15105,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="6" t="n">
-        <v>38.66</v>
+        <v>71.88</v>
       </c>
       <c r="D97" s="6" t="n">
         <v>0.22</v>
@@ -15135,7 +15135,7 @@
         <v>1.75</v>
       </c>
       <c r="O97" s="5" t="n">
-        <v>68.58666666666785</v>
+        <v>68.65277777777897</v>
       </c>
     </row>
     <row r="98">
@@ -15143,7 +15143,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="6" t="n">
-        <v>38.88</v>
+        <v>72.11</v>
       </c>
       <c r="D98" s="6" t="n">
         <v>0.22</v>
@@ -15173,7 +15173,7 @@
         <v>1.75</v>
       </c>
       <c r="O98" s="5" t="n">
-        <v>70.57000000000136</v>
+        <v>70.63611111111247</v>
       </c>
     </row>
     <row r="99">
@@ -15181,7 +15181,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="6" t="n">
-        <v>39.11</v>
+        <v>72.33</v>
       </c>
       <c r="D99" s="6" t="n">
         <v>0.22</v>
@@ -15211,7 +15211,7 @@
         <v>1.75</v>
       </c>
       <c r="O99" s="5" t="n">
-        <v>72.55333333333482</v>
+        <v>72.61944444444593</v>
       </c>
     </row>
     <row r="100">
@@ -15219,7 +15219,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="6" t="n">
-        <v>39.33</v>
+        <v>72.56</v>
       </c>
       <c r="D100" s="6" t="n">
         <v>0.22</v>
@@ -15249,7 +15249,7 @@
         <v>1.75</v>
       </c>
       <c r="O100" s="5" t="n">
-        <v>74.53666666666831</v>
+        <v>74.60277777777942</v>
       </c>
     </row>
     <row r="101">
@@ -15257,7 +15257,7 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="6" t="n">
-        <v>39.53</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D101" s="6" t="n">
         <v>0.19</v>
@@ -15287,7 +15287,7 @@
         <v>1.75</v>
       </c>
       <c r="O101" s="5" t="n">
-        <v>76.52000000000177</v>
+        <v>76.58611111111288</v>
       </c>
     </row>
     <row r="102">
@@ -15295,7 +15295,7 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="6" t="n">
-        <v>39.73</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="D102" s="6" t="n">
         <v>0.19</v>
@@ -15325,7 +15325,7 @@
         <v>1.75</v>
       </c>
       <c r="O102" s="5" t="n">
-        <v>78.50333333333528</v>
+        <v>78.5694444444464</v>
       </c>
     </row>
     <row r="103">
@@ -15333,13 +15333,13 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="6" t="n">
-        <v>39.89</v>
+        <v>73.11</v>
       </c>
       <c r="D103" s="6" t="n">
         <v>0.15</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>1.592</v>
+        <v>1.533</v>
       </c>
       <c r="F103" s="5" t="n">
         <v>0</v>
@@ -15357,10 +15357,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="5" t="n">
-        <v>1.342</v>
+        <v>1.283</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>1.341666666666667</v>
+        <v>1.283333333333333</v>
       </c>
       <c r="O103" s="5" t="n">
         <v>80.02388888889092</v>
@@ -15371,7 +15371,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="6" t="n">
-        <v>39.92</v>
+        <v>73.13</v>
       </c>
       <c r="D104" s="6" t="n">
         <v>0.02</v>
@@ -15409,7 +15409,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="6" t="n">
-        <v>39.94</v>
+        <v>73.16</v>
       </c>
       <c r="D105" s="6" t="n">
         <v>0.02</v>
@@ -15447,7 +15447,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="6" t="n">
-        <v>39.97</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="D106" s="6" t="n">
         <v>0.02</v>
@@ -15485,7 +15485,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="6" t="n">
-        <v>39.99</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D107" s="6" t="n">
         <v>0.02</v>
@@ -15523,7 +15523,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="6" t="n">
-        <v>40.02</v>
+        <v>73.23</v>
       </c>
       <c r="D108" s="6" t="n">
         <v>0.02</v>
@@ -15561,7 +15561,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="6" t="n">
-        <v>40.04</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="D109" s="6" t="n">
         <v>0.02</v>
@@ -15599,7 +15599,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="6" t="n">
-        <v>40.07</v>
+        <v>73.28</v>
       </c>
       <c r="D110" s="6" t="n">
         <v>0.02</v>
@@ -15637,7 +15637,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="6" t="n">
-        <v>40.09</v>
+        <v>73.31</v>
       </c>
       <c r="D111" s="6" t="n">
         <v>0.02</v>
@@ -15675,7 +15675,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="6" t="n">
-        <v>40.12</v>
+        <v>73.33</v>
       </c>
       <c r="D112" s="6" t="n">
         <v>0.02</v>
@@ -15713,7 +15713,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="6" t="n">
-        <v>40.14</v>
+        <v>73.36</v>
       </c>
       <c r="D113" s="6" t="n">
         <v>0.02</v>
@@ -15751,7 +15751,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="6" t="n">
-        <v>40.17</v>
+        <v>73.38</v>
       </c>
       <c r="D114" s="6" t="n">
         <v>0.02</v>
@@ -15789,7 +15789,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="6" t="n">
-        <v>40.19</v>
+        <v>73.41</v>
       </c>
       <c r="D115" s="6" t="n">
         <v>0.02</v>
@@ -15827,7 +15827,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="6" t="n">
-        <v>40.22</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="D116" s="6" t="n">
         <v>0.02</v>
@@ -15865,7 +15865,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="6" t="n">
-        <v>40.24</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="D117" s="6" t="n">
         <v>0.02</v>
@@ -15903,7 +15903,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="6" t="n">
-        <v>40.27</v>
+        <v>73.48</v>
       </c>
       <c r="D118" s="6" t="n">
         <v>0.02</v>
@@ -15941,7 +15941,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="6" t="n">
-        <v>40.29</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="D119" s="6" t="n">
         <v>0.02</v>
@@ -15979,7 +15979,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="6" t="n">
-        <v>40.32</v>
+        <v>73.53</v>
       </c>
       <c r="D120" s="6" t="n">
         <v>0.02</v>
@@ -16017,7 +16017,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="6" t="n">
-        <v>40.39</v>
+        <v>73.61</v>
       </c>
       <c r="D121" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -16055,7 +16055,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="6" t="n">
-        <v>40.47</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="D122" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -16093,7 +16093,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="6" t="n">
-        <v>40.54</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="D123" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -16131,7 +16131,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="6" t="n">
-        <v>40.77</v>
+        <v>73.98</v>
       </c>
       <c r="D124" s="6" t="n">
         <v>0.22</v>
@@ -16169,7 +16169,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="6" t="n">
-        <v>41.07</v>
+        <v>74.28</v>
       </c>
       <c r="D125" s="6" t="n">
         <v>0.29</v>
@@ -16207,7 +16207,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="6" t="n">
-        <v>41.37</v>
+        <v>74.58</v>
       </c>
       <c r="D126" s="6" t="n">
         <v>0.29</v>
@@ -16245,7 +16245,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="6" t="n">
-        <v>41.67</v>
+        <v>74.88</v>
       </c>
       <c r="D127" s="6" t="n">
         <v>0.29</v>
@@ -16283,7 +16283,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="6" t="n">
-        <v>41.97</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="D128" s="6" t="n">
         <v>0.29</v>
@@ -16321,7 +16321,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="6" t="n">
-        <v>42.27</v>
+        <v>75.48</v>
       </c>
       <c r="D129" s="6" t="n">
         <v>0.29</v>
@@ -16359,7 +16359,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="6" t="n">
-        <v>42.57</v>
+        <v>75.78</v>
       </c>
       <c r="D130" s="6" t="n">
         <v>0.29</v>
@@ -16397,7 +16397,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="6" t="n">
-        <v>42.87</v>
+        <v>76.08</v>
       </c>
       <c r="D131" s="6" t="n">
         <v>0.29</v>
@@ -16435,7 +16435,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D132" s="6" t="n">
         <v>0.29</v>
@@ -16473,7 +16473,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D133" s="6" t="n">
         <v>0</v>
@@ -16511,7 +16511,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D134" s="6" t="n">
         <v>0</v>
@@ -16549,7 +16549,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D135" s="6" t="n">
         <v>0</v>
@@ -16587,7 +16587,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="6" t="n">
-        <v>43.17</v>
+        <v>76.38</v>
       </c>
       <c r="D136" s="6" t="n">
         <v>0</v>
@@ -16625,7 +16625,7 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="6" t="n">
-        <v>43.07</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="D137" s="6" t="n">
         <v>-0.09</v>
@@ -16663,7 +16663,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="6" t="n">
-        <v>42.98</v>
+        <v>76.19</v>
       </c>
       <c r="D138" s="6" t="n">
         <v>-0.09</v>
@@ -16701,7 +16701,7 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="6" t="n">
-        <v>42.88</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D139" s="6" t="n">
         <v>-0.09</v>
@@ -16739,7 +16739,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="6" t="n">
-        <v>42.79</v>
+        <v>76</v>
       </c>
       <c r="D140" s="6" t="n">
         <v>-0.09</v>
@@ -16777,7 +16777,7 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="6" t="n">
-        <v>42.5</v>
+        <v>75.72</v>
       </c>
       <c r="D141" s="6" t="n">
         <v>-0.28</v>
@@ -16815,7 +16815,7 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="6" t="n">
-        <v>42.22</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="D142" s="6" t="n">
         <v>-0.28</v>
@@ -16853,7 +16853,7 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="6" t="n">
-        <v>41.93</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D143" s="6" t="n">
         <v>-0.28</v>
@@ -16891,7 +16891,7 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="6" t="n">
-        <v>41.65</v>
+        <v>74.86</v>
       </c>
       <c r="D144" s="6" t="n">
         <v>-0.28</v>
@@ -16929,7 +16929,7 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="6" t="n">
-        <v>41.28</v>
+        <v>74.5</v>
       </c>
       <c r="D145" s="6" t="n">
         <v>-0.36</v>
@@ -16967,7 +16967,7 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="6" t="n">
-        <v>40.81</v>
+        <v>74.02</v>
       </c>
       <c r="D146" s="6" t="n">
         <v>-0.47</v>
@@ -17005,7 +17005,7 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="6" t="n">
-        <v>40.33</v>
+        <v>73.55</v>
       </c>
       <c r="D147" s="6" t="n">
         <v>-0.47</v>
@@ -17043,7 +17043,7 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="6" t="n">
-        <v>39.98</v>
+        <v>73.2</v>
       </c>
       <c r="D148" s="6" t="n">
         <v>-0.34</v>
@@ -17081,10 +17081,10 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="6" t="n">
-        <v>39.65</v>
+        <v>72.89</v>
       </c>
       <c r="D149" s="6" t="n">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E149" s="5" t="n">
         <v>0</v>
@@ -17119,10 +17119,10 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="6" t="n">
-        <v>39.23</v>
+        <v>72.59</v>
       </c>
       <c r="D150" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="E150" s="5" t="n">
         <v>0</v>
@@ -17157,10 +17157,10 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="6" t="n">
-        <v>38.81</v>
+        <v>72.3</v>
       </c>
       <c r="D151" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E151" s="5" t="n">
         <v>0</v>
@@ -17195,10 +17195,10 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="6" t="n">
-        <v>38.39</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D152" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E152" s="5" t="n">
         <v>0</v>
@@ -17233,7 +17233,7 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="6" t="n">
-        <v>38.04</v>
+        <v>71.66</v>
       </c>
       <c r="D153" s="6" t="n">
         <v>-0.34</v>
@@ -17271,7 +17271,7 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="6" t="n">
-        <v>37.69</v>
+        <v>71.31</v>
       </c>
       <c r="D154" s="6" t="n">
         <v>-0.34</v>
@@ -17309,7 +17309,7 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="6" t="n">
-        <v>37.34</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="D155" s="6" t="n">
         <v>-0.34</v>
@@ -17347,10 +17347,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D156" s="6" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E156" s="5" t="n">
         <v>0</v>
@@ -17385,7 +17385,7 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D157" s="6" t="n">
         <v>0</v>
@@ -17423,7 +17423,7 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D158" s="6" t="n">
         <v>0</v>
@@ -17461,7 +17461,7 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D159" s="6" t="n">
         <v>0</v>
@@ -17499,7 +17499,7 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D160" s="6" t="n">
         <v>0</v>
@@ -17537,7 +17537,7 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D161" s="6" t="n">
         <v>0</v>
@@ -17575,7 +17575,7 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D162" s="6" t="n">
         <v>0</v>
@@ -17613,7 +17613,7 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D163" s="6" t="n">
         <v>0</v>
@@ -17651,7 +17651,7 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D164" s="6" t="n">
         <v>0</v>
@@ -17689,7 +17689,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D165" s="6" t="n">
         <v>0</v>
@@ -17727,7 +17727,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D166" s="6" t="n">
         <v>0</v>
@@ -17765,7 +17765,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D167" s="6" t="n">
         <v>0</v>
@@ -17803,7 +17803,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="6" t="n">
-        <v>36.99</v>
+        <v>70.7</v>
       </c>
       <c r="D168" s="6" t="n">
         <v>0</v>
@@ -17841,7 +17841,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="6" t="n">
-        <v>37.22</v>
+        <v>70.92</v>
       </c>
       <c r="D169" s="6" t="n">
         <v>0.22</v>
@@ -17879,7 +17879,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="6" t="n">
-        <v>37.44</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="D170" s="6" t="n">
         <v>0.22</v>
@@ -17917,7 +17917,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="6" t="n">
-        <v>37.67</v>
+        <v>71.37</v>
       </c>
       <c r="D171" s="6" t="n">
         <v>0.22</v>
@@ -17955,7 +17955,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="6" t="n">
-        <v>37.89</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D172" s="6" t="n">
         <v>0.22</v>
@@ -17993,7 +17993,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="6" t="n">
-        <v>38.12</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="D173" s="6" t="n">
         <v>0.22</v>
@@ -18031,7 +18031,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="6" t="n">
-        <v>38.34</v>
+        <v>72.05</v>
       </c>
       <c r="D174" s="6" t="n">
         <v>0.22</v>
@@ -18069,7 +18069,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="6" t="n">
-        <v>38.57</v>
+        <v>72.27</v>
       </c>
       <c r="D175" s="6" t="n">
         <v>0.22</v>
@@ -18107,7 +18107,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="6" t="n">
-        <v>38.79</v>
+        <v>72.5</v>
       </c>
       <c r="D176" s="6" t="n">
         <v>0.22</v>
@@ -18145,7 +18145,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="6" t="n">
-        <v>39.09</v>
+        <v>72.8</v>
       </c>
       <c r="D177" s="6" t="n">
         <v>0.29</v>
@@ -18183,7 +18183,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="6" t="n">
-        <v>39.39</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D178" s="6" t="n">
         <v>0.29</v>
@@ -18221,7 +18221,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="6" t="n">
-        <v>39.69</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D179" s="6" t="n">
         <v>0.29</v>
@@ -18259,7 +18259,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="6" t="n">
-        <v>39.99</v>
+        <v>73.7</v>
       </c>
       <c r="D180" s="6" t="n">
         <v>0.29</v>
@@ -18297,7 +18297,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="6" t="n">
-        <v>40.29</v>
+        <v>74</v>
       </c>
       <c r="D181" s="6" t="n">
         <v>0.29</v>
@@ -18335,7 +18335,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="6" t="n">
-        <v>40.59</v>
+        <v>74.3</v>
       </c>
       <c r="D182" s="6" t="n">
         <v>0.29</v>
@@ -18373,7 +18373,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="6" t="n">
-        <v>40.89</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D183" s="6" t="n">
         <v>0.29</v>
@@ -18411,7 +18411,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="6" t="n">
-        <v>41.19</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D184" s="6" t="n">
         <v>0.29</v>
@@ -18449,7 +18449,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="6" t="n">
-        <v>41.49</v>
+        <v>75.2</v>
       </c>
       <c r="D185" s="6" t="n">
         <v>0.29</v>
@@ -18487,7 +18487,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="6" t="n">
-        <v>41.79</v>
+        <v>75.5</v>
       </c>
       <c r="D186" s="6" t="n">
         <v>0.29</v>
@@ -18525,7 +18525,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="6" t="n">
-        <v>42.09</v>
+        <v>75.8</v>
       </c>
       <c r="D187" s="6" t="n">
         <v>0.29</v>
@@ -18563,7 +18563,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="6" t="n">
-        <v>42.19</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D188" s="6" t="n">
         <v>0.09</v>
@@ -18601,13 +18601,13 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="6" t="n">
-        <v>42.41</v>
+        <v>76.12</v>
       </c>
       <c r="D189" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E189" s="5" t="n">
-        <v>2.15</v>
+        <v>2.208</v>
       </c>
       <c r="F189" s="5" t="n">
         <v>0</v>
@@ -18625,13 +18625,13 @@
         <v>0</v>
       </c>
       <c r="K189" s="5" t="n">
-        <v>1.4</v>
+        <v>1.458</v>
       </c>
       <c r="N189" s="5" t="n">
-        <v>1.4</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="O189" s="5" t="n">
-        <v>60.65333333333393</v>
+        <v>60.71944444444504</v>
       </c>
     </row>
     <row r="190">
@@ -18639,7 +18639,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="6" t="n">
-        <v>42.66</v>
+        <v>76.37</v>
       </c>
       <c r="D190" s="6" t="n">
         <v>0.24</v>
@@ -18669,7 +18669,7 @@
         <v>1.75</v>
       </c>
       <c r="O190" s="5" t="n">
-        <v>62.63666666666743</v>
+        <v>62.70277777777855</v>
       </c>
     </row>
     <row r="191">
@@ -18677,7 +18677,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="6" t="n">
-        <v>42.91</v>
+        <v>76.62</v>
       </c>
       <c r="D191" s="6" t="n">
         <v>0.24</v>
@@ -18707,7 +18707,7 @@
         <v>1.75</v>
       </c>
       <c r="O191" s="5" t="n">
-        <v>64.62000000000089</v>
+        <v>64.68611111111201</v>
       </c>
     </row>
     <row r="192">
@@ -18715,7 +18715,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="6" t="n">
-        <v>43.16</v>
+        <v>76.87</v>
       </c>
       <c r="D192" s="6" t="n">
         <v>0.24</v>
@@ -18745,7 +18745,7 @@
         <v>1.75</v>
       </c>
       <c r="O192" s="5" t="n">
-        <v>66.60333333333439</v>
+        <v>66.6694444444455</v>
       </c>
     </row>
     <row r="193">
@@ -18753,7 +18753,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="6" t="n">
-        <v>43.38</v>
+        <v>77.09</v>
       </c>
       <c r="D193" s="6" t="n">
         <v>0.22</v>
@@ -18783,7 +18783,7 @@
         <v>1.75</v>
       </c>
       <c r="O193" s="5" t="n">
-        <v>68.58666666666785</v>
+        <v>68.65277777777897</v>
       </c>
     </row>
     <row r="194">
@@ -18791,7 +18791,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="6" t="n">
-        <v>43.61</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="D194" s="6" t="n">
         <v>0.22</v>
@@ -18821,7 +18821,7 @@
         <v>1.75</v>
       </c>
       <c r="O194" s="5" t="n">
-        <v>70.57000000000136</v>
+        <v>70.63611111111247</v>
       </c>
     </row>
     <row r="195">
@@ -18829,7 +18829,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="6" t="n">
-        <v>43.83</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D195" s="6" t="n">
         <v>0.22</v>
@@ -18859,7 +18859,7 @@
         <v>1.75</v>
       </c>
       <c r="O195" s="5" t="n">
-        <v>72.55333333333482</v>
+        <v>72.61944444444593</v>
       </c>
     </row>
     <row r="196">
@@ -18867,7 +18867,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="6" t="n">
-        <v>44.06</v>
+        <v>77.77</v>
       </c>
       <c r="D196" s="6" t="n">
         <v>0.22</v>
@@ -18897,7 +18897,7 @@
         <v>1.75</v>
       </c>
       <c r="O196" s="5" t="n">
-        <v>74.53666666666831</v>
+        <v>74.60277777777942</v>
       </c>
     </row>
     <row r="197">
@@ -18905,7 +18905,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="6" t="n">
-        <v>44.26</v>
+        <v>77.97</v>
       </c>
       <c r="D197" s="6" t="n">
         <v>0.19</v>
@@ -18935,7 +18935,7 @@
         <v>1.75</v>
       </c>
       <c r="O197" s="5" t="n">
-        <v>76.52000000000177</v>
+        <v>76.58611111111288</v>
       </c>
     </row>
     <row r="198">
@@ -18943,7 +18943,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="6" t="n">
-        <v>44.46</v>
+        <v>78.17</v>
       </c>
       <c r="D198" s="6" t="n">
         <v>0.19</v>
@@ -18973,7 +18973,7 @@
         <v>1.75</v>
       </c>
       <c r="O198" s="5" t="n">
-        <v>78.50333333333528</v>
+        <v>78.5694444444464</v>
       </c>
     </row>
     <row r="199">
@@ -18981,13 +18981,13 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="6" t="n">
-        <v>44.62</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="D199" s="6" t="n">
         <v>0.15</v>
       </c>
       <c r="E199" s="5" t="n">
-        <v>1.592</v>
+        <v>1.533</v>
       </c>
       <c r="F199" s="5" t="n">
         <v>0</v>
@@ -19005,10 +19005,10 @@
         <v>0</v>
       </c>
       <c r="K199" s="5" t="n">
-        <v>1.342</v>
+        <v>1.283</v>
       </c>
       <c r="N199" s="5" t="n">
-        <v>1.341666666666667</v>
+        <v>1.283333333333333</v>
       </c>
       <c r="O199" s="5" t="n">
         <v>80.02388888889092</v>
@@ -19019,7 +19019,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="6" t="n">
-        <v>44.64</v>
+        <v>78.34</v>
       </c>
       <c r="D200" s="6" t="n">
         <v>0.02</v>
@@ -19057,7 +19057,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="6" t="n">
-        <v>44.67</v>
+        <v>78.37</v>
       </c>
       <c r="D201" s="6" t="n">
         <v>0.02</v>
@@ -19095,7 +19095,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="6" t="n">
-        <v>44.69</v>
+        <v>78.39</v>
       </c>
       <c r="D202" s="6" t="n">
         <v>0.02</v>
@@ -19133,7 +19133,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="6" t="n">
-        <v>44.72</v>
+        <v>78.42</v>
       </c>
       <c r="D203" s="6" t="n">
         <v>0.02</v>
@@ -19171,7 +19171,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="6" t="n">
-        <v>44.74</v>
+        <v>78.44</v>
       </c>
       <c r="D204" s="6" t="n">
         <v>0.02</v>
@@ -19209,7 +19209,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="6" t="n">
-        <v>44.77</v>
+        <v>78.47</v>
       </c>
       <c r="D205" s="6" t="n">
         <v>0.02</v>
@@ -19247,7 +19247,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="6" t="n">
-        <v>44.79</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="D206" s="6" t="n">
         <v>0.02</v>
@@ -19285,7 +19285,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="6" t="n">
-        <v>44.82</v>
+        <v>78.52</v>
       </c>
       <c r="D207" s="6" t="n">
         <v>0.02</v>
@@ -19323,7 +19323,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="6" t="n">
-        <v>44.84</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="D208" s="6" t="n">
         <v>0.02</v>
@@ -19361,7 +19361,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="6" t="n">
-        <v>44.87</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D209" s="6" t="n">
         <v>0.02</v>
@@ -19399,7 +19399,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="6" t="n">
-        <v>44.89</v>
+        <v>78.59</v>
       </c>
       <c r="D210" s="6" t="n">
         <v>0.02</v>
@@ -19437,7 +19437,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="6" t="n">
-        <v>44.92</v>
+        <v>78.62</v>
       </c>
       <c r="D211" s="6" t="n">
         <v>0.02</v>
@@ -19475,7 +19475,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="6" t="n">
-        <v>44.94</v>
+        <v>78.64</v>
       </c>
       <c r="D212" s="6" t="n">
         <v>0.02</v>
@@ -19513,7 +19513,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="6" t="n">
-        <v>44.97</v>
+        <v>78.67</v>
       </c>
       <c r="D213" s="6" t="n">
         <v>0.02</v>
@@ -19551,7 +19551,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="6" t="n">
-        <v>44.99</v>
+        <v>78.69</v>
       </c>
       <c r="D214" s="6" t="n">
         <v>0.02</v>
@@ -19589,7 +19589,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="6" t="n">
-        <v>45.02</v>
+        <v>78.72</v>
       </c>
       <c r="D215" s="6" t="n">
         <v>0.02</v>
@@ -19627,7 +19627,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="6" t="n">
-        <v>45.04</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="D216" s="6" t="n">
         <v>0.02</v>
@@ -19665,7 +19665,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="6" t="n">
-        <v>45.12</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="D217" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -19703,7 +19703,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="6" t="n">
-        <v>45.19</v>
+        <v>78.89</v>
       </c>
       <c r="D218" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -19741,7 +19741,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="6" t="n">
-        <v>45.27</v>
+        <v>78.97</v>
       </c>
       <c r="D219" s="6" t="n">
         <v>0.07000000000000001</v>
@@ -19779,7 +19779,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="6" t="n">
-        <v>45.49</v>
+        <v>79.19</v>
       </c>
       <c r="D220" s="6" t="n">
         <v>0.22</v>
@@ -19817,7 +19817,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="6" t="n">
-        <v>45.79</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="D221" s="6" t="n">
         <v>0.29</v>
@@ -19855,7 +19855,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="6" t="n">
-        <v>46.09</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="D222" s="6" t="n">
         <v>0.29</v>
@@ -19893,7 +19893,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="6" t="n">
-        <v>46.39</v>
+        <v>80.09</v>
       </c>
       <c r="D223" s="6" t="n">
         <v>0.29</v>
@@ -19931,7 +19931,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="6" t="n">
-        <v>46.69</v>
+        <v>80.39</v>
       </c>
       <c r="D224" s="6" t="n">
         <v>0.29</v>
@@ -19969,7 +19969,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="6" t="n">
-        <v>46.99</v>
+        <v>80.69</v>
       </c>
       <c r="D225" s="6" t="n">
         <v>0.29</v>
@@ -20007,7 +20007,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="6" t="n">
-        <v>47.29</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="D226" s="6" t="n">
         <v>0.29</v>
@@ -20045,7 +20045,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="6" t="n">
-        <v>47.59</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="D227" s="6" t="n">
         <v>0.29</v>
@@ -20083,7 +20083,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D228" s="6" t="n">
         <v>0.29</v>
@@ -20121,7 +20121,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D229" s="6" t="n">
         <v>0</v>
@@ -20159,7 +20159,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D230" s="6" t="n">
         <v>0</v>
@@ -20197,7 +20197,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D231" s="6" t="n">
         <v>0</v>
@@ -20235,7 +20235,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="6" t="n">
-        <v>47.89</v>
+        <v>81.59</v>
       </c>
       <c r="D232" s="6" t="n">
         <v>0</v>
@@ -20273,7 +20273,7 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="6" t="n">
-        <v>47.8</v>
+        <v>81.5</v>
       </c>
       <c r="D233" s="6" t="n">
         <v>-0.09</v>
@@ -20311,7 +20311,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="6" t="n">
-        <v>47.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D234" s="6" t="n">
         <v>-0.09</v>
@@ -20349,7 +20349,7 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="6" t="n">
-        <v>47.61</v>
+        <v>81.31</v>
       </c>
       <c r="D235" s="6" t="n">
         <v>-0.09</v>
@@ -20387,7 +20387,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="6" t="n">
-        <v>47.51</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="D236" s="6" t="n">
         <v>-0.09</v>
@@ -20425,7 +20425,7 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="6" t="n">
-        <v>47.23</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="D237" s="6" t="n">
         <v>-0.28</v>
@@ -20463,7 +20463,7 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="6" t="n">
-        <v>46.94</v>
+        <v>80.64</v>
       </c>
       <c r="D238" s="6" t="n">
         <v>-0.28</v>
@@ -20501,7 +20501,7 @@
         <v>44230.44791666666</v>
       </c>
       <c r="C239" s="6" t="n">
-        <v>46.66</v>
+        <v>80.36</v>
       </c>
       <c r="D239" s="6" t="n">
         <v>-0.28</v>
@@ -20539,7 +20539,7 @@
         <v>44230.45833333334</v>
       </c>
       <c r="C240" s="6" t="n">
-        <v>46.37</v>
+        <v>80.06999999999999</v>
       </c>
       <c r="D240" s="6" t="n">
         <v>-0.28</v>
@@ -20577,7 +20577,7 @@
         <v>44230.46875</v>
       </c>
       <c r="C241" s="6" t="n">
-        <v>46.01</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="D241" s="6" t="n">
         <v>-0.36</v>
@@ -20615,7 +20615,7 @@
         <v>44230.47916666666</v>
       </c>
       <c r="C242" s="6" t="n">
-        <v>45.53</v>
+        <v>79.23</v>
       </c>
       <c r="D242" s="6" t="n">
         <v>-0.47</v>
@@ -20653,7 +20653,7 @@
         <v>44230.48958333334</v>
       </c>
       <c r="C243" s="6" t="n">
-        <v>45.06</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="D243" s="6" t="n">
         <v>-0.47</v>
@@ -20691,7 +20691,7 @@
         <v>44230.5</v>
       </c>
       <c r="C244" s="6" t="n">
-        <v>44.71</v>
+        <v>78.41</v>
       </c>
       <c r="D244" s="6" t="n">
         <v>-0.34</v>
@@ -20729,10 +20729,10 @@
         <v>44230.51041666666</v>
       </c>
       <c r="C245" s="6" t="n">
-        <v>44.38</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D245" s="6" t="n">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E245" s="5" t="n">
         <v>0</v>
@@ -20767,10 +20767,10 @@
         <v>44230.52083333334</v>
       </c>
       <c r="C246" s="6" t="n">
-        <v>43.96</v>
+        <v>77.8</v>
       </c>
       <c r="D246" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="E246" s="5" t="n">
         <v>0</v>
@@ -20805,10 +20805,10 @@
         <v>44230.53125</v>
       </c>
       <c r="C247" s="6" t="n">
-        <v>43.54</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="D247" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E247" s="5" t="n">
         <v>0</v>
@@ -20843,10 +20843,10 @@
         <v>44230.54166666666</v>
       </c>
       <c r="C248" s="6" t="n">
-        <v>43.12</v>
+        <v>77.22</v>
       </c>
       <c r="D248" s="6" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="E248" s="5" t="n">
         <v>0</v>
@@ -20881,7 +20881,7 @@
         <v>44230.55208333334</v>
       </c>
       <c r="C249" s="6" t="n">
-        <v>42.77</v>
+        <v>76.87</v>
       </c>
       <c r="D249" s="6" t="n">
         <v>-0.34</v>
@@ -20919,7 +20919,7 @@
         <v>44230.5625</v>
       </c>
       <c r="C250" s="6" t="n">
-        <v>42.42</v>
+        <v>76.52</v>
       </c>
       <c r="D250" s="6" t="n">
         <v>-0.34</v>
@@ -20957,7 +20957,7 @@
         <v>44230.57291666666</v>
       </c>
       <c r="C251" s="6" t="n">
-        <v>42.07</v>
+        <v>76.17</v>
       </c>
       <c r="D251" s="6" t="n">
         <v>-0.34</v>
@@ -20995,10 +20995,10 @@
         <v>44230.58333333334</v>
       </c>
       <c r="C252" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D252" s="6" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E252" s="5" t="n">
         <v>0</v>
@@ -21033,7 +21033,7 @@
         <v>44230.59375</v>
       </c>
       <c r="C253" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D253" s="6" t="n">
         <v>0</v>
@@ -21071,7 +21071,7 @@
         <v>44230.60416666666</v>
       </c>
       <c r="C254" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D254" s="6" t="n">
         <v>0</v>
@@ -21109,7 +21109,7 @@
         <v>44230.61458333334</v>
       </c>
       <c r="C255" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D255" s="6" t="n">
         <v>0</v>
@@ -21147,7 +21147,7 @@
         <v>44230.625</v>
       </c>
       <c r="C256" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D256" s="6" t="n">
         <v>0</v>
@@ -21185,7 +21185,7 @@
         <v>44230.63541666666</v>
       </c>
       <c r="C257" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D257" s="6" t="n">
         <v>0</v>
@@ -21223,7 +21223,7 @@
         <v>44230.64583333334</v>
       </c>
       <c r="C258" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D258" s="6" t="n">
         <v>0</v>
@@ -21261,7 +21261,7 @@
         <v>44230.65625</v>
       </c>
       <c r="C259" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D259" s="6" t="n">
         <v>0</v>
@@ -21299,7 +21299,7 @@
         <v>44230.66666666666</v>
       </c>
       <c r="C260" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D260" s="6" t="n">
         <v>0</v>
@@ -21337,7 +21337,7 @@
         <v>44230.67708333334</v>
       </c>
       <c r="C261" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D261" s="6" t="n">
         <v>0</v>
@@ -21375,7 +21375,7 @@
         <v>44230.6875</v>
       </c>
       <c r="C262" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D262" s="6" t="n">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>44230.69791666666</v>
       </c>
       <c r="C263" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D263" s="6" t="n">
         <v>0</v>
@@ -21451,7 +21451,7 @@
         <v>44230.70833333334</v>
       </c>
       <c r="C264" s="6" t="n">
-        <v>41.72</v>
+        <v>75.91</v>
       </c>
       <c r="D264" s="6" t="n">
         <v>0</v>
@@ -21489,7 +21489,7 @@
         <v>44230.71875</v>
       </c>
       <c r="C265" s="6" t="n">
-        <v>41.94</v>
+        <v>76.13</v>
       </c>
       <c r="D265" s="6" t="n">
         <v>0.22</v>
@@ -21527,7 +21527,7 @@
         <v>44230.72916666666</v>
       </c>
       <c r="C266" s="6" t="n">
-        <v>42.17</v>
+        <v>76.36</v>
       </c>
       <c r="D266" s="6" t="n">
         <v>0.22</v>
@@ -21565,7 +21565,7 @@
         <v>44230.73958333334</v>
       </c>
       <c r="C267" s="6" t="n">
-        <v>42.39</v>
+        <v>76.58</v>
       </c>
       <c r="D267" s="6" t="n">
         <v>0.22</v>
@@ -21603,7 +21603,7 @@
         <v>44230.75</v>
       </c>
       <c r="C268" s="6" t="n">
-        <v>42.62</v>
+        <v>76.81</v>
       </c>
       <c r="D268" s="6" t="n">
         <v>0.22</v>
@@ -21641,7 +21641,7 @@
         <v>44230.76041666666</v>
       </c>
       <c r="C269" s="6" t="n">
-        <v>42.84</v>
+        <v>77.03</v>
       </c>
       <c r="D269" s="6" t="n">
         <v>0.22</v>
@@ -21679,7 +21679,7 @@
         <v>44230.77083333334</v>
       </c>
       <c r="C270" s="6" t="n">
-        <v>43.07</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D270" s="6" t="n">
         <v>0.22</v>
@@ -21717,7 +21717,7 @@
         <v>44230.78125</v>
       </c>
       <c r="C271" s="6" t="n">
-        <v>43.29</v>
+        <v>77.48</v>
       </c>
       <c r="D271" s="6" t="n">
         <v>0.22</v>
@@ -21755,7 +21755,7 @@
         <v>44230.79166666666</v>
       </c>
       <c r="C272" s="6" t="n">
-        <v>43.52</v>
+        <v>77.70999999999999</v>
       </c>
       <c r="D272" s="6" t="n">
         <v>0.22</v>
@@ -21793,7 +21793,7 @@
         <v>44230.80208333334</v>
       </c>
       <c r="C273" s="6" t="n">
-        <v>43.82</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="D273" s="6" t="n">
         <v>0.29</v>
@@ -21831,7 +21831,7 @@
         <v>44230.8125</v>
       </c>
       <c r="C274" s="6" t="n">
-        <v>44.12</v>
+        <v>78.31</v>
       </c>
       <c r="D274" s="6" t="n">
         <v>0.29</v>
@@ -21869,7 +21869,7 @@
         <v>44230.82291666666</v>
       </c>
       <c r="C275" s="6" t="n">
-        <v>44.42</v>
+        <v>78.61</v>
       </c>
       <c r="D275" s="6" t="n">
         <v>0.29</v>
@@ -21907,7 +21907,7 @@
         <v>44230.83333333334</v>
       </c>
       <c r="C276" s="6" t="n">
-        <v>44.72</v>
+        <v>78.91</v>
       </c>
       <c r="D276" s="6" t="n">
         <v>0.29</v>
@@ -21945,7 +21945,7 @@
         <v>44230.84375</v>
       </c>
       <c r="C277" s="6" t="n">
-        <v>45.02</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="D277" s="6" t="n">
         <v>0.29</v>
@@ -21983,7 +21983,7 @@
         <v>44230.85416666666</v>
       </c>
       <c r="C278" s="6" t="n">
-        <v>45.32</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D278" s="6" t="n">
         <v>0.29</v>
@@ -22021,7 +22021,7 @@
         <v>44230.86458333334</v>
       </c>
       <c r="C279" s="6" t="n">
-        <v>45.62</v>
+        <v>79.81</v>
       </c>
       <c r="D279" s="6" t="n">
         <v>0.29</v>
@@ -22059,7 +22059,7 @@
         <v>44230.875</v>
       </c>
       <c r="C280" s="6" t="n">
-        <v>45.92</v>
+        <v>80.11</v>
       </c>
       <c r="D280" s="6" t="n">
         <v>0.29</v>
@@ -22097,7 +22097,7 @@
         <v>44230.88541666666</v>
       </c>
       <c r="C281" s="6" t="n">
-        <v>46.22</v>
+        <v>80.41</v>
       </c>
       <c r="D281" s="6" t="n">
         <v>0.29</v>
@@ -22135,7 +22135,7 @@
         <v>44230.89583333334</v>
       </c>
       <c r="C282" s="6" t="n">
-        <v>46.52</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="D282" s="6" t="n">
         <v>0.29</v>
@@ -22173,7 +22173,7 @@
         <v>44230.90625</v>
       </c>
       <c r="C283" s="6" t="n">
-        <v>46.82</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="D283" s="6" t="n">
         <v>0.29</v>
@@ -22211,7 +22211,7 @@
         <v>44230.91666666666</v>
       </c>
       <c r="C284" s="6" t="n">
-        <v>46.92</v>
+        <v>81.11</v>
       </c>
       <c r="D284" s="6" t="n">
         <v>0.09</v>
@@ -22249,13 +22249,13 @@
         <v>44230.92708333334</v>
       </c>
       <c r="C285" s="6" t="n">
-        <v>47.13</v>
+        <v>81.33</v>
       </c>
       <c r="D285" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E285" s="5" t="n">
-        <v>2.15</v>
+        <v>2.208</v>
       </c>
       <c r="F285" s="5" t="n">
         <v>0</v>
@@ -22273,13 +22273,13 @@
         <v>0</v>
       </c>
       <c r="K285" s="5" t="n">
-        <v>1.4</v>
+        <v>1.458</v>
       </c>
       <c r="N285" s="5" t="n">
-        <v>1.4</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="O285" s="5" t="n">
-        <v>60.65333333333393</v>
+        <v>60.71944444444504</v>
       </c>
     </row>
     <row r="286">
@@ -22287,7 +22287,7 @@
         <v>44230.9375</v>
       </c>
       <c r="C286" s="6" t="n">
-        <v>47.38</v>
+        <v>81.58</v>
       </c>
       <c r="D286" s="6" t="n">
         <v>0.24</v>
@@ -22317,7 +22317,7 @@
         <v>1.75</v>
       </c>
       <c r="O286" s="5" t="n">
-        <v>62.63666666666743</v>
+        <v>62.70277777777855</v>
       </c>
     </row>
     <row r="287">
@@ -22325,7 +22325,7 @@
         <v>44230.94791666666</v>
       </c>
       <c r="C287" s="6" t="n">
-        <v>47.63</v>
+        <v>81.83</v>
       </c>
       <c r="D287" s="6" t="n">
         <v>0.24</v>
@@ -22355,7 +22355,7 @@
         <v>1.75</v>
       </c>
       <c r="O287" s="5" t="n">
-        <v>64.62000000000089</v>
+        <v>64.68611111111201</v>
       </c>
     </row>
     <row r="288">
@@ -22363,7 +22363,7 @@
         <v>44230.95833333334</v>
       </c>
       <c r="C288" s="6" t="n">
-        <v>47.88</v>
+        <v>82.08</v>
       </c>
       <c r="D288" s="6" t="n">
         <v>0.24</v>
@@ -22393,7 +22393,7 @@
         <v>1.75</v>
       </c>
       <c r="O288" s="5" t="n">
-        <v>66.60333333333439</v>
+        <v>66.6694444444455</v>
       </c>
     </row>
     <row r="289">
@@ -22401,7 +22401,7 @@
         <v>44230.96875</v>
       </c>
       <c r="C289" s="6" t="n">
-        <v>48.11</v>
+        <v>82.3</v>
       </c>
       <c r="D289" s="6" t="n">
         <v>0.22</v>
@@ -22431,7 +22431,7 @@
         <v>1.75</v>
       </c>
       <c r="O289" s="5" t="n">
-        <v>68.58666666666785</v>
+        <v>68.65277777777897</v>
       </c>
     </row>
     <row r="290">
@@ -22439,7 +22439,7 @@
         <v>44230.97916666666</v>
       </c>
       <c r="C290" s="6" t="n">
-        <v>48.33</v>
+        <v>82.53</v>
       </c>
       <c r="D290" s="6" t="n">
         <v>0.22</v>
@@ -22469,7 +22469,7 @@
         <v>1.75</v>
       </c>
       <c r="O290" s="5" t="n">
-        <v>70.57000000000136</v>
+        <v>70.63611111111247</v>
       </c>
     </row>
     <row r="291">
@@ -22477,7 +22477,7 @@
         <v>44230.98958333334</v>
       </c>
       <c r="C291" s="6" t="n">
-        <v>48.56</v>
+        <v>82.75</v>
       </c>
       <c r="D291" s="6" t="n">
         <v>0.22</v>
@@ -22507,7 +22507,7 @@
         <v>1.75</v>
       </c>
       <c r="O291" s="5" t="n">
-        <v>72.55333333333482</v>
+        <v>72.61944444444593</v>
       </c>
     </row>
   </sheetData>
